--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DD819-3F57-4BD3-A2ED-87700AA926DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D6813-C1C3-4664-AD81-1B5CCDCEA392}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="7665" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="110">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>16-5</t>
+  </si>
+  <si>
+    <t>Trajectlengte</t>
   </si>
 </sst>
 </file>
@@ -2209,7 +2212,7 @@
   </sheetPr>
   <dimension ref="B1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -2856,8 +2859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,10 +2912,16 @@
         <v>0</v>
       </c>
       <c r="F4" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="9">
+        <v>24</v>
+      </c>
       <c r="D5" s="65" t="s">
         <v>34</v>
       </c>
@@ -2956,7 +2965,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="27">
         <f>E7</f>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4D6813-C1C3-4664-AD81-1B5CCDCEA392}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18135C37-088E-436A-8198-1F7790746856}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="5745" yWindow="4860" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="111">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Trajectlengte</t>
+  </si>
+  <si>
+    <t>Lengte-effect</t>
   </si>
 </sst>
 </file>
@@ -1985,11 +1988,11 @@
         <v>70</v>
       </c>
       <c r="C7" s="29" t="str">
-        <f>STPH!C4</f>
+        <f>STPH!C5</f>
         <v>GR</v>
       </c>
       <c r="D7" s="25">
-        <f>STPH!C5</f>
+        <f>STPH!C6</f>
         <v>3.0440911317815011E-3</v>
       </c>
       <c r="E7" s="49"/>
@@ -2007,11 +2010,11 @@
         <v>71</v>
       </c>
       <c r="C8" s="31" t="str">
-        <f>STBI!C4</f>
+        <f>STBI!C5</f>
         <v>GR</v>
       </c>
       <c r="D8" s="26">
-        <f>STBI!C5</f>
+        <f>STBI!C6</f>
         <v>1.1238044587088547E-3</v>
       </c>
       <c r="E8" s="49"/>
@@ -2029,11 +2032,11 @@
         <v>72</v>
       </c>
       <c r="C9" s="31">
-        <f>GEKB!C4</f>
+        <f>GEKB!C5</f>
         <v>0</v>
       </c>
       <c r="D9" s="26">
-        <f>GEKB!C5</f>
+        <f>GEKB!C6</f>
         <v>0</v>
       </c>
       <c r="E9" s="49"/>
@@ -2051,11 +2054,11 @@
         <v>73</v>
       </c>
       <c r="C10" s="31">
-        <f>DA!C4</f>
+        <f>DA!C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="26">
-        <f>DA!C5</f>
+        <f>DA!C6</f>
         <v>0</v>
       </c>
       <c r="E10" s="49"/>
@@ -2073,11 +2076,11 @@
         <v>74</v>
       </c>
       <c r="C11" s="31">
-        <f>STKWp!C4</f>
+        <f>STKWp!C5</f>
         <v>1.9961410016728909E-3</v>
       </c>
       <c r="D11" s="26">
-        <f>STKWp!C5</f>
+        <f>STKWp!C6</f>
         <v>1.9961410016728909E-3</v>
       </c>
       <c r="E11" s="49"/>
@@ -2095,11 +2098,11 @@
         <v>75</v>
       </c>
       <c r="C12" s="31" t="str">
-        <f>HTKW!C4</f>
+        <f>HTKW!C5</f>
         <v>GR</v>
       </c>
       <c r="D12" s="26">
-        <f>HTKW!C5</f>
+        <f>HTKW!C6</f>
         <v>2.8437656524269217E-2</v>
       </c>
       <c r="E12" s="49"/>
@@ -2266,31 +2269,31 @@
         <v>+0</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B3,C3),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
       <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B3,C3),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B3,C3),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B3,C3),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B3,C3),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
       <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B3,C3),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B3,C3),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
     </row>
@@ -2306,31 +2309,31 @@
         <v>+0</v>
       </c>
       <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B4,C4),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B4,C4),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B4,C4),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B4,C4),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B4,C4),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B4,C4),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
       <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B4,C4),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2346,31 +2349,31 @@
         <v>+0</v>
       </c>
       <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B5,C5),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B5,C5),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B5,C5),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B5,C5),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B5,C5),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B5,C5),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B5,C5),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2386,31 +2389,31 @@
         <v>D</v>
       </c>
       <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B6,C6),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B6,C6),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B6,C6),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B6,C6),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B6,C6),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B6,C6),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B6,C6),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2426,31 +2429,31 @@
         <v>+0</v>
       </c>
       <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B7,C7),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B7,C7),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B7,C7),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B7,C7),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B7,C7),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B7,C7),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B7,C7),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
@@ -2466,31 +2469,31 @@
         <v>+0</v>
       </c>
       <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B8,C8),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B8,C8),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B8,C8),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B8,C8),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B8,C8),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B8,C8),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B8,C8),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2506,31 +2509,31 @@
         <v>+0</v>
       </c>
       <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B9,C9),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B9,C9),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B9,C9),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B9,C9),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B9,C9),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B9,C9),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B9,C9),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2546,31 +2549,31 @@
         <v>+0</v>
       </c>
       <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B10,C10),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B10,C10),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B10,C10),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B10,C10),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B10,C10),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B10,C10),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B10,C10),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2586,31 +2589,31 @@
         <v>D</v>
       </c>
       <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B11,C11),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B11,C11),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B11,C11),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B11,C11),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B11,C11),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B11,C11),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
       <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B11,C11),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2626,31 +2629,31 @@
         <v>+0</v>
       </c>
       <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B12,C12),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B12,C12),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B12,C12),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B12,C12),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B12,C12),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B12,C12),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B12,C12),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2666,31 +2669,31 @@
         <v>+0</v>
       </c>
       <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B13,C13),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B13,C13),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B13,C13),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B13,C13),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B13,C13),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B13,C13),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B13,C13),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2706,31 +2709,31 @@
         <v>+0</v>
       </c>
       <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STPH!$D$10:$D$29&gt;AVERAGE(B14,C14),STPH!$D$10:$D$29)),STPH!$D$10:$D$29),1))</f>
+        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$10:$O$29,IFERROR(MATCH(MIN(IF(STBI!$D$10:$D$29&gt;AVERAGE(B14,C14),STBI!$D$10:$D$29)),STBI!$D$10:$D$29),1))</f>
+        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$10:$K$29,IFERROR(MATCH(MIN(IF(GEKB!$D$10:$D$29&gt;AVERAGE(B14,C14),GEKB!$D$10:$D$29)),GEKB!$D$10:$D$29),1))</f>
+        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(DA!$K$10:$K$29,IFERROR(MATCH(MIN(IF(DA!$D$10:$D$29&gt;AVERAGE(B14,C14),DA!$D$10:$D$29)),DA!$D$10:$D$29),1))</f>
+        <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$10:$K$29,IFERROR(MATCH(MIN(IF(STKWp!$D$10:$D$29&gt;AVERAGE(B14,C14),STKWp!$D$10:$D$29)),STKWp!$D$10:$D$29),1))</f>
+        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
       <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(BSKW!$D$10:$D$29&gt;AVERAGE(B14,C14),BSKW!$D$10:$D$29)),BSKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
       <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$10:$K$29,IFERROR(MATCH(MIN(IF(HTKW!$D$10:$D$29&gt;AVERAGE(B14,C14),HTKW!$D$10:$D$29)),HTKW!$D$10:$D$29),1))</f>
+        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>0</v>
       </c>
     </row>
@@ -2859,7 +2862,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -3097,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49710E67-B736-4749-B620-06835F5DE469}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3141,234 +3144,165 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>GR</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
         <v>3.0440911317815011E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="3" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29" t="str">
-        <f t="shared" ref="L10:L21" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29" t="str">
+        <f t="shared" ref="L11:L22" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="M10" s="5" t="str">
-        <f t="shared" ref="M10:M21" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
+      <c r="M11" s="5" t="str">
+        <f t="shared" ref="M11:M22" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="N10" s="6" t="str">
-        <f t="shared" ref="N10:N21" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
+      <c r="N11" s="6" t="str">
+        <f t="shared" ref="N11:N22" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
         <v>-</v>
       </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O21" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11:O22" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
         <v>ND</v>
       </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q21" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S21" si="5">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V10)</f>
-        <v>+III</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="26">
-        <f t="shared" ref="H11:H12" si="6">G11*3.66</f>
-        <v>0</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
       <c r="Q11" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R21" si="7">IF(M11="-",1,Q11)</f>
+        <f>IF(M11="-",1,Q11)</f>
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11:T21" si="8">IF(L11="-",0,S11)</f>
+        <f>IF(L11="-",0,S11)</f>
         <v>0</v>
       </c>
       <c r="U11" s="9">
@@ -3384,19 +3318,19 @@
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X21" si="9">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>20</v>
@@ -3405,21 +3339,17 @@
         <v>26</v>
       </c>
       <c r="G12" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" si="6"/>
-        <v>3.66</v>
+        <f t="shared" ref="H12:H13" si="6">G12*3.66</f>
+        <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10">
-        <v>0</v>
-      </c>
-      <c r="K12" s="26">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="26"/>
       <c r="L12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3441,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="R12:R22" si="7">IF(M12="-",1,Q12)</f>
         <v>1</v>
       </c>
       <c r="S12" s="10">
@@ -3449,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="T12:T22" si="8">IF(L12="-",0,S12)</f>
         <v>0</v>
       </c>
       <c r="U12" s="9">
@@ -3465,19 +3395,19 @@
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="X12:X22" si="9">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
         <v>6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>8</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>20</v>
@@ -3486,44 +3416,48 @@
         <v>26</v>
       </c>
       <c r="G13" s="10">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="H13" s="26">
-        <f>G13*3.66</f>
-        <v>0.40260000000000001</v>
+        <f t="shared" si="6"/>
+        <v>3.66</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="31" t="str">
+      <c r="J13" s="10">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="M13" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="M13" s="10">
         <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="N13" s="11" t="str">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>-</v>
+        <v>1</v>
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q13" s="31" t="e">
+        <v>+III</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="R13" s="10">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S13" s="10" t="e">
+      <c r="S13" s="10">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="T13" s="10">
         <f t="shared" si="8"/>
@@ -3543,18 +3477,18 @@
       </c>
       <c r="X13" s="12" t="b">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>20</v>
@@ -3563,135 +3497,140 @@
         <v>26</v>
       </c>
       <c r="G14" s="10">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="H14" s="26">
-        <v>1</v>
+        <f>G14*3.66</f>
+        <v>0.40260000000000001</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="10"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>-</v>
+      </c>
+      <c r="M14" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="N14" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="O14" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>D</v>
+      </c>
+      <c r="Q14" s="31" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="9">
+        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W14" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
+        <v>+III</v>
+      </c>
+      <c r="X14" s="12" t="b">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="26">
+        <v>1</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="10">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K15" s="26">
         <v>1.8300000000000001E-5</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L15" s="31">
         <f t="shared" si="0"/>
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="M14" s="10">
+      <c r="M15" s="10">
         <f t="shared" si="1"/>
         <v>1.8300000000000001E-5</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="2"/>
         <v>3.6599999999999997</v>
       </c>
-      <c r="O14" s="32" t="str">
+      <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="31">
+      <c r="Q15" s="31">
         <f t="shared" si="4"/>
         <v>0.99998169999999997</v>
       </c>
-      <c r="R14" s="10">
+      <c r="R15" s="10">
         <f t="shared" si="7"/>
         <v>0.99998169999999997</v>
       </c>
-      <c r="S14" s="10">
+      <c r="S15" s="10">
         <f t="shared" si="5"/>
         <v>1.4450000000000002E-4</v>
       </c>
-      <c r="T14" s="10">
+      <c r="T15" s="10">
         <f t="shared" si="8"/>
         <v>1.4450000000000002E-4</v>
       </c>
-      <c r="U14" s="9">
-        <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
-      </c>
-      <c r="V14" s="9">
-        <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>5</v>
-      </c>
-      <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="12" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="9">
-        <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="10">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="9"/>
@@ -3700,13 +3639,13 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>21</v>
@@ -3772,13 +3711,13 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>21</v>
@@ -3844,27 +3783,22 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>18</v>
-      </c>
       <c r="E18" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="10">
-        <v>7.27E-4</v>
-      </c>
-      <c r="H18" s="26">
-        <f t="shared" ref="H18:H21" si="10">G18*3.66</f>
-        <v>2.6608199999999999E-3</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="8" t="s">
         <v>21</v>
       </c>
@@ -3872,47 +3806,47 @@
       <c r="K18" s="26"/>
       <c r="L18" s="31">
         <f t="shared" si="0"/>
-        <v>7.27E-4</v>
+        <v>0</v>
       </c>
       <c r="M18" s="10">
         <f t="shared" si="1"/>
-        <v>2.6608199999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="N18" s="11">
         <f t="shared" si="2"/>
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="O18" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="Q18" s="31">
         <f t="shared" si="4"/>
-        <v>0.99733917999999999</v>
+        <v>1</v>
       </c>
       <c r="R18" s="10">
         <f t="shared" si="7"/>
-        <v>0.99733917999999999</v>
+        <v>1</v>
       </c>
       <c r="S18" s="10">
         <f t="shared" si="5"/>
-        <v>2.1010299999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="T18" s="10">
         <f t="shared" si="8"/>
-        <v>2.1010299999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="9">
         <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="9">
         <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="X18" s="12" t="b">
         <f t="shared" si="9"/>
@@ -3921,13 +3855,13 @@
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
         <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>20</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>20</v>
@@ -3936,169 +3870,169 @@
         <v>26</v>
       </c>
       <c r="G19" s="10">
+        <v>7.27E-4</v>
+      </c>
+      <c r="H19" s="26">
+        <f t="shared" ref="H19:H22" si="10">G19*3.66</f>
+        <v>2.6608199999999999E-3</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="31">
+        <f t="shared" si="0"/>
+        <v>7.27E-4</v>
+      </c>
+      <c r="M19" s="10">
+        <f t="shared" si="1"/>
+        <v>2.6608199999999999E-3</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="2"/>
+        <v>3.66</v>
+      </c>
+      <c r="O19" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99733917999999999</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99733917999999999</v>
+      </c>
+      <c r="S19" s="10">
+        <f t="shared" si="5"/>
+        <v>2.1010299999999999E-2</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="8"/>
+        <v>2.1010299999999999E-2</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="V19" s="9">
+        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>5</v>
+      </c>
+      <c r="W19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="12" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
+        <v>18</v>
+      </c>
+      <c r="D20" s="9">
+        <v>20</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="10">
         <v>7.2800000000000002E-4</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H20" s="26">
         <f t="shared" si="10"/>
         <v>2.6644800000000003E-3</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I20" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M20" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="11">
+      <c r="N20" s="11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="32" t="str">
+      <c r="O20" s="32" t="str">
         <f t="shared" si="3"/>
         <v>+III</v>
       </c>
-      <c r="Q19" s="31">
+      <c r="Q20" s="31">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="R19" s="10">
+      <c r="R20" s="10">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="S19" s="10">
+      <c r="S20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T19" s="10">
+      <c r="T20" s="10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="U19" s="9">
-        <f t="array" ref="U19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V19" s="9">
-        <f>IFERROR(MATCH($U19,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
+      <c r="U20" s="9">
+        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="9">
+        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>1</v>
+      </c>
+      <c r="W20" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
         <v>+III</v>
       </c>
-      <c r="X19" s="12" t="b">
+      <c r="X20" s="12" t="b">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C21" s="9">
         <v>20</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D21" s="9">
         <v>22</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G21" s="10">
         <v>1E-10</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H21" s="26">
         <f t="shared" si="10"/>
         <v>3.6600000000000003E-10</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="10"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="31">
-        <f t="shared" si="0"/>
-        <v>1E-10</v>
-      </c>
-      <c r="M20" s="10">
-        <f t="shared" si="1"/>
-        <v>3.6600000000000003E-10</v>
-      </c>
-      <c r="N20" s="11">
-        <f t="shared" si="2"/>
-        <v>3.66</v>
-      </c>
-      <c r="O20" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="31">
-        <f t="shared" si="4"/>
-        <v>0.99999999963399999</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="7"/>
-        <v>0.99999999963399999</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="5"/>
-        <v>2.8900000000000002E-9</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="8"/>
-        <v>2.8900000000000002E-9</v>
-      </c>
-      <c r="U20" s="9">
-        <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
-      </c>
-      <c r="V20" s="9">
-        <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
-        <v>5</v>
-      </c>
-      <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="12" t="b">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="9">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9">
-        <v>24</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="10">
-        <v>1E-4</v>
-      </c>
-      <c r="H21" s="26">
-        <f t="shared" si="10"/>
-        <v>3.6600000000000001E-4</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>21</v>
@@ -4107,15 +4041,15 @@
       <c r="K21" s="26"/>
       <c r="L21" s="31">
         <f t="shared" si="0"/>
-        <v>1E-4</v>
+        <v>1E-10</v>
       </c>
       <c r="M21" s="10">
         <f t="shared" si="1"/>
-        <v>3.6600000000000001E-4</v>
+        <v>3.6600000000000003E-10</v>
       </c>
       <c r="N21" s="11">
         <f t="shared" si="2"/>
-        <v>3.6599999999999997</v>
+        <v>3.66</v>
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="3"/>
@@ -4123,19 +4057,19 @@
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="4"/>
-        <v>0.99963400000000002</v>
+        <v>0.99999999963399999</v>
       </c>
       <c r="R21" s="10">
         <f t="shared" si="7"/>
-        <v>0.99963400000000002</v>
+        <v>0.99999999963399999</v>
       </c>
       <c r="S21" s="10">
         <f t="shared" si="5"/>
-        <v>2.8900000000000002E-3</v>
+        <v>2.8900000000000002E-9</v>
       </c>
       <c r="T21" s="10">
         <f t="shared" si="8"/>
-        <v>2.8900000000000002E-3</v>
+        <v>2.8900000000000002E-9</v>
       </c>
       <c r="U21" s="9">
         <f t="array" ref="U21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4155,28 +4089,81 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="10">
+        <v>1E-4</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="10"/>
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="J22" s="10"/>
       <c r="K22" s="26"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="32"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="12"/>
+      <c r="L22" s="31">
+        <f t="shared" si="0"/>
+        <v>1E-4</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="1"/>
+        <v>3.6600000000000001E-4</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="2"/>
+        <v>3.6599999999999997</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99963400000000002</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99963400000000002</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="5"/>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="8"/>
+        <v>2.8900000000000002E-3</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="V22" s="9">
+        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,),1)</f>
+        <v>5</v>
+      </c>
+      <c r="W22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="12" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -4322,48 +4309,72 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="81" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="80" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="79" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -4381,7 +4392,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="12" operator="endsWith" id="{F4C956AC-4E51-489A-B485-D8BDC4A2FBD8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -4392,7 +4403,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="13" operator="endsWith" id="{EC1E636F-FA52-4882-8914-4A6967CF2391}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -4403,7 +4414,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="14" operator="endsWith" id="{FFF59E8A-EABB-417F-BB55-82036CECB9D8}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -4414,7 +4425,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{B198F5CD-E767-4F17-B69C-63325B705E57}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -4425,7 +4436,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3DC54A52-4129-476D-B4F0-C6819CA98DA8}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -4436,7 +4447,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="17" operator="containsText" id="{679DAC17-7B4C-4FB7-B8DA-924271D929B5}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -4446,7 +4457,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -4456,7 +4467,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4466,10 +4477,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DFA30DD-EAF1-4973-B290-E12CB5036732}">
-  <dimension ref="B2:Y31"/>
+  <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4510,265 +4521,197 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(Q10:Q29),MAX(S10:S29)),"GR")</f>
-        <v>GR</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(Q11:Q30),MAX(S11:S30)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(R10:R29),MAX(T10:T29))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(R11:R30),MAX(T11:T30))</f>
         <v>1.1238044587088547E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(R10:R29)&gt;MAX(T10:T29),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(R11:R30)&gt;MAX(T11:T30),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L10" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="M10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="20" t="s">
+      <c r="O10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="R9" s="37" t="s">
+      <c r="R10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="S9" s="37" t="s">
+      <c r="S10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="T9" s="37" t="s">
+      <c r="T10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="U9" s="38" t="s">
+      <c r="U10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="38" t="s">
+      <c r="V10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="W9" s="4"/>
-      <c r="X9" s="39" t="s">
+      <c r="W10" s="4"/>
+      <c r="X10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="Y9" s="35"/>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="Y10" s="35"/>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="25">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="29">
-        <f t="shared" ref="L10:L17" si="0">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(J10),J10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <f t="shared" ref="M10:M17" si="1">IF($E10="Nee",0,IF(I10="Ja",IF(ISNUMBER(K10),K10,"-"),IF(ISNUMBER(H10),H10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <f t="shared" ref="N10:N21" si="2">IF(ISNUMBER(L10),IF(M10=0,1,M10/L10),"-")</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="30" t="str">
-        <f t="shared" ref="O10:O21" si="3">IF(ISNUMBER($M10),W10,IF($X10,"D","ND"))</f>
+      <c r="J11" s="5"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="29">
+        <f t="shared" ref="L11:L18" si="0">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(J11),J11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <f t="shared" ref="M11:M18" si="1">IF($E11="Nee",0,IF(I11="Ja",IF(ISNUMBER(K11),K11,"-"),IF(ISNUMBER(H11),H11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" ref="N11:N22" si="2">IF(ISNUMBER(L11),IF(M11=0,1,M11/L11),"-")</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="30" t="str">
+        <f t="shared" ref="O11:O22" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
         <v>+III</v>
       </c>
-      <c r="Q10" s="31">
-        <f t="shared" ref="Q10:Q21" si="4">IF(AND(F10="Geen faalkans",I10="Nee"),1,1-M10)</f>
-        <v>1</v>
-      </c>
-      <c r="R10" s="10">
-        <f>IF(M10="-",1,Q10)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="10">
-        <f t="shared" ref="S10:S21" si="5">IF(AND(F10="Geen faalkans",I10="Nee"),0,L10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <f>IF(L10="-",0,S10)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="9">
-        <f t="array" ref="U10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="9">
-        <f>IFERROR(MATCH($U10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V10)</f>
-        <v>+III</v>
-      </c>
-      <c r="X10" s="12" t="b">
-        <f>IF($E10="Ja",IF($I10="Ja",NOT(ISNUMBER($J10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="10">
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="H11" s="26">
-        <v>5.4984000000000001E-4</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="31">
-        <f t="shared" si="0"/>
-        <v>2.3699999999999999E-4</v>
-      </c>
-      <c r="M11" s="10">
-        <f t="shared" si="1"/>
-        <v>5.4984000000000001E-4</v>
-      </c>
-      <c r="N11" s="11">
-        <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
-      </c>
-      <c r="O11" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="Q11" s="31">
-        <f t="shared" si="4"/>
-        <v>0.99945015999999998</v>
+        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <v>1</v>
       </c>
       <c r="R11" s="10">
-        <f t="shared" ref="R11:R21" si="6">IF(M11="-",1,Q11)</f>
-        <v>0.99945015999999998</v>
+        <f>IF(M11="-",1,Q11)</f>
+        <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5076E-3</v>
+        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <v>0</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" ref="T11:T21" si="7">IF(L11="-",0,S11)</f>
-        <v>3.5076E-3</v>
+        <f>IF(L11="-",0,S11)</f>
+        <v>0</v>
       </c>
       <c r="U11" s="9">
         <f t="array" ref="U11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="9">
         <f>IFERROR(MATCH($U11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
-        <f t="shared" ref="X11:X21" si="8">IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($I11="Ja",NOT(ISNUMBER($J11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>20</v>
@@ -4777,10 +4720,10 @@
         <v>24</v>
       </c>
       <c r="G12" s="10">
-        <v>1E-50</v>
+        <v>2.3699999999999999E-4</v>
       </c>
       <c r="H12" s="26">
-        <v>2.3200000000000003E-50</v>
+        <v>5.4984000000000001E-4</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>21</v>
@@ -4789,11 +4732,11 @@
       <c r="K12" s="26"/>
       <c r="L12" s="31">
         <f t="shared" si="0"/>
-        <v>1E-50</v>
+        <v>2.3699999999999999E-4</v>
       </c>
       <c r="M12" s="10">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003E-50</v>
+        <v>5.4984000000000001E-4</v>
       </c>
       <c r="N12" s="11">
         <f t="shared" si="2"/>
@@ -4805,19 +4748,19 @@
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.99945015999999998</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
+        <f t="shared" ref="R12:R22" si="6">IF(M12="-",1,Q12)</f>
+        <v>0.99945015999999998</v>
       </c>
       <c r="S12" s="10">
         <f t="shared" si="5"/>
-        <v>1.48E-49</v>
+        <v>3.5076E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="7"/>
-        <v>1.48E-49</v>
+        <f t="shared" ref="T12:T22" si="7">IF(L12="-",0,S12)</f>
+        <v>3.5076E-3</v>
       </c>
       <c r="U12" s="9">
         <f t="array" ref="U12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -4832,28 +4775,32 @@
         <v>0</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
         <v>6</v>
       </c>
-      <c r="D13" s="9">
-        <v>8</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1E-50</v>
+      </c>
+      <c r="H13" s="26">
+        <v>2.3200000000000003E-50</v>
+      </c>
       <c r="I13" s="8" t="s">
         <v>21</v>
       </c>
@@ -4861,19 +4808,19 @@
       <c r="K13" s="26"/>
       <c r="L13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1E-50</v>
       </c>
       <c r="M13" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.3200000000000003E-50</v>
       </c>
       <c r="N13" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="4"/>
@@ -4885,23 +4832,23 @@
       </c>
       <c r="S13" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1.48E-49</v>
       </c>
       <c r="T13" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.48E-49</v>
       </c>
       <c r="U13" s="9">
         <f t="array" ref="U13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V13" s="9">
         <f>IFERROR(MATCH($U13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="X13" s="12" t="b">
         <f t="shared" si="8"/>
@@ -4910,26 +4857,22 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
       </c>
-      <c r="D14" s="9">
-        <v>10</v>
-      </c>
       <c r="E14" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="10">
-        <v>2.3751999999999999E-4</v>
-      </c>
-      <c r="H14" s="26">
-        <v>5.5104640000000005E-4</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="8" t="s">
         <v>21</v>
       </c>
@@ -4937,47 +4880,47 @@
       <c r="K14" s="26"/>
       <c r="L14" s="31">
         <f t="shared" si="0"/>
-        <v>2.3751999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="M14" s="10">
         <f t="shared" si="1"/>
-        <v>5.5104640000000005E-4</v>
+        <v>0</v>
       </c>
       <c r="N14" s="11">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
+        <v>1</v>
       </c>
       <c r="O14" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="Q14" s="31">
         <f t="shared" si="4"/>
-        <v>0.99944895359999997</v>
+        <v>1</v>
       </c>
       <c r="R14" s="10">
         <f t="shared" si="6"/>
-        <v>0.99944895359999997</v>
+        <v>1</v>
       </c>
       <c r="S14" s="10">
         <f t="shared" si="5"/>
-        <v>3.5152960000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="T14" s="10">
         <f t="shared" si="7"/>
-        <v>3.5152960000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="U14" s="9">
         <f t="array" ref="U14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V14" s="9">
         <f>IFERROR(MATCH($U14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
         <f t="shared" si="8"/>
@@ -4986,22 +4929,26 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="10">
+        <v>2.3751999999999999E-4</v>
+      </c>
+      <c r="H15" s="26">
+        <v>5.5104640000000005E-4</v>
+      </c>
       <c r="I15" s="8" t="s">
         <v>21</v>
       </c>
@@ -5009,47 +4956,47 @@
       <c r="K15" s="26"/>
       <c r="L15" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.3751999999999999E-4</v>
       </c>
       <c r="M15" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5104640000000005E-4</v>
       </c>
       <c r="N15" s="11">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.3200000000000003</v>
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0.99944895359999997</v>
       </c>
       <c r="R15" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0.99944895359999997</v>
       </c>
       <c r="S15" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.5152960000000002E-3</v>
       </c>
       <c r="T15" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5152960000000002E-3</v>
       </c>
       <c r="U15" s="9">
         <f t="array" ref="U15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="V15" s="9">
         <f>IFERROR(MATCH($U15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5058,79 +5005,70 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <v>12</v>
       </c>
-      <c r="D16" s="9">
-        <v>14</v>
-      </c>
       <c r="E16" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H16" s="26">
-        <f>G16*2.32</f>
-        <v>0.23199999999999998</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="10">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="K16" s="26">
-        <v>2.3200000000000005E-5</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="26"/>
       <c r="L16" s="31">
         <f t="shared" si="0"/>
-        <v>1.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10">
         <f t="shared" si="1"/>
-        <v>2.3200000000000005E-5</v>
+        <v>0</v>
       </c>
       <c r="N16" s="11">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
+        <v>1</v>
       </c>
       <c r="O16" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="Q16" s="31">
         <f t="shared" si="4"/>
-        <v>0.9999768</v>
+        <v>1</v>
       </c>
       <c r="R16" s="10">
         <f t="shared" si="6"/>
-        <v>0.9999768</v>
+        <v>1</v>
       </c>
       <c r="S16" s="10">
         <f t="shared" si="5"/>
-        <v>1.4800000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="T16" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="U16" s="9">
         <f t="array" ref="U16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V16" s="9">
         <f>IFERROR(MATCH($U16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5139,13 +5077,13 @@
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
@@ -5154,28 +5092,28 @@
         <v>24</v>
       </c>
       <c r="G17" s="10">
-        <v>2.3800000000000001E-4</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="26">
-        <f t="shared" ref="H17:H21" si="9">G17*2.32</f>
-        <v>5.5216E-4</v>
+        <f>G17*2.32</f>
+        <v>0.23199999999999998</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="10">
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K17" s="26">
-        <v>2.3200000000000003E-10</v>
+        <v>2.3200000000000005E-5</v>
       </c>
       <c r="L17" s="31">
         <f t="shared" si="0"/>
-        <v>1E-10</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="M17" s="10">
         <f t="shared" si="1"/>
-        <v>2.3200000000000003E-10</v>
+        <v>2.3200000000000005E-5</v>
       </c>
       <c r="N17" s="11">
         <f t="shared" si="2"/>
@@ -5187,19 +5125,19 @@
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="4"/>
-        <v>0.99999999976800003</v>
+        <v>0.9999768</v>
       </c>
       <c r="R17" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999999976800003</v>
+        <v>0.9999768</v>
       </c>
       <c r="S17" s="10">
         <f t="shared" si="5"/>
-        <v>1.4800000000000001E-9</v>
+        <v>1.4800000000000002E-4</v>
       </c>
       <c r="T17" s="10">
         <f t="shared" si="7"/>
-        <v>1.4800000000000001E-9</v>
+        <v>1.4800000000000002E-4</v>
       </c>
       <c r="U17" s="9">
         <f t="array" ref="U17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -5220,13 +5158,13 @@
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>20</v>
@@ -5235,125 +5173,125 @@
         <v>24</v>
       </c>
       <c r="G18" s="10">
-        <v>1</v>
+        <v>2.3800000000000001E-4</v>
       </c>
       <c r="H18" s="26">
+        <f t="shared" ref="H18:H22" si="9">G18*2.32</f>
+        <v>5.5216E-4</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="10">
+        <v>1E-10</v>
+      </c>
+      <c r="K18" s="26">
+        <v>2.3200000000000003E-10</v>
+      </c>
+      <c r="L18" s="31">
+        <f t="shared" si="0"/>
+        <v>1E-10</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="1"/>
+        <v>2.3200000000000003E-10</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O18" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="5"/>
+        <v>1.4800000000000001E-9</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="7"/>
+        <v>1.4800000000000001E-9</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="V18" s="9">
+        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="W18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="26">
         <f t="shared" si="9"/>
         <v>2.3199999999999998</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="31" t="str">
-        <f>IF($E18="Nee",0,IF(I18="Ja",IF(ISNUMBER(J18),J18,"-"),IF(ISNUMBER(G18),G18,"-")))</f>
+      <c r="J19" s="10"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="31" t="str">
+        <f>IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(J19),J19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
         <v>-</v>
       </c>
-      <c r="M18" s="10" t="str">
-        <f>IF($E18="Nee",0,IF(I18="Ja",IF(ISNUMBER(K18),K18,"-"),IF(ISNUMBER(H18),H18,"-")))</f>
+      <c r="M19" s="10" t="str">
+        <f>IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(K19),K19,"-"),IF(ISNUMBER(H19),H19,"-")))</f>
         <v>-</v>
       </c>
-      <c r="N18" s="11" t="str">
+      <c r="N19" s="11" t="str">
         <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="O18" s="32" t="str">
+      <c r="O19" s="32" t="str">
         <f t="shared" si="3"/>
         <v>D</v>
       </c>
-      <c r="Q18" s="31" t="e">
+      <c r="Q19" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R18" s="10">
+      <c r="R19" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="S18" s="10" t="e">
+      <c r="S19" s="10" t="e">
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="9">
-        <f t="array" ref="U18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="V18" s="9">
-        <f>IFERROR(MATCH($U18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
-        <v>+III</v>
-      </c>
-      <c r="X18" s="12" t="b">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="9">
-        <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>20</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H19" s="26">
-        <f t="shared" si="9"/>
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="10">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
-      <c r="L19" s="31">
-        <f t="shared" ref="L19:L21" si="10">IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(J19),J19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <f t="shared" ref="M19:M21" si="11">IF($E19="Nee",0,IF(I19="Ja",IF(ISNUMBER(K19),K19,"-"),IF(ISNUMBER(H19),H19,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q19" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
       </c>
       <c r="T19" s="10">
         <f t="shared" si="7"/>
@@ -5373,18 +5311,18 @@
       </c>
       <c r="X19" s="12" t="b">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <v>20</v>
-      </c>
-      <c r="D20" s="9">
-        <v>22</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>20</v>
@@ -5393,64 +5331,64 @@
         <v>24</v>
       </c>
       <c r="G20" s="10">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="26">
         <f t="shared" si="9"/>
-        <v>0.23199999999999998</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="10">
-        <v>1E-8</v>
+        <v>0</v>
       </c>
       <c r="K20" s="26">
-        <v>2.3200000000000003E-8</v>
+        <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" si="10"/>
-        <v>1E-8</v>
+        <f t="shared" ref="L20:L22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <v>0</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="11"/>
-        <v>2.3200000000000003E-8</v>
+        <f t="shared" ref="M20:M22" si="11">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
+        <v>0</v>
       </c>
       <c r="N20" s="11">
         <f t="shared" si="2"/>
-        <v>2.3200000000000003</v>
+        <v>1</v>
       </c>
       <c r="O20" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="Q20" s="31">
         <f t="shared" si="4"/>
-        <v>0.99999997679999997</v>
+        <v>1</v>
       </c>
       <c r="R20" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997679999997</v>
+        <v>1</v>
       </c>
       <c r="S20" s="10">
         <f t="shared" si="5"/>
-        <v>1.48E-7</v>
+        <v>0</v>
       </c>
       <c r="T20" s="10">
         <f t="shared" si="7"/>
-        <v>1.48E-7</v>
+        <v>0</v>
       </c>
       <c r="U20" s="9">
         <f t="array" ref="U20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="V20" s="9">
         <f>IFERROR(MATCH($U20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5459,13 +5397,13 @@
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
         <v>22</v>
-      </c>
-      <c r="D21" s="9">
-        <v>24</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>20</v>
@@ -5474,11 +5412,11 @@
         <v>24</v>
       </c>
       <c r="G21" s="10">
-        <v>9.9000000000000005E-2</v>
+        <v>0.1</v>
       </c>
       <c r="H21" s="26">
         <f t="shared" si="9"/>
-        <v>0.22968</v>
+        <v>0.23199999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>20</v>
@@ -5539,28 +5477,85 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="32"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="12"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="10">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="9"/>
+        <v>0.22968</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="10">
+        <v>1E-8</v>
+      </c>
+      <c r="K22" s="26">
+        <v>2.3200000000000003E-8</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="10"/>
+        <v>1E-8</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="11"/>
+        <v>2.3200000000000003E-8</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="2"/>
+        <v>2.3200000000000003</v>
+      </c>
+      <c r="O22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="4"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="5"/>
+        <v>1.48E-7</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="7"/>
+        <v>1.48E-7</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="array" ref="U22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$M22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="V22" s="9">
+        <f>IFERROR(MATCH($U22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="W22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="12" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -5706,48 +5701,72 @@
       <c r="W28" s="9"/>
       <c r="X28" s="12"/>
     </row>
-    <row r="29" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="34"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-      <c r="X29" s="17"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="Q30" s="1"/>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="32"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="12"/>
+    </row>
+    <row r="30" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="15"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="34"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="17"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="Q31" s="1"/>
     </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Q32" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:H29">
+  <conditionalFormatting sqref="G11:H30">
     <cfRule type="expression" dxfId="70" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K29">
+  <conditionalFormatting sqref="J11:K30">
     <cfRule type="expression" dxfId="69" priority="10">
-      <formula>IF($I10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($I11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O10:O29">
+  <conditionalFormatting sqref="O11:O30">
     <cfRule type="cellIs" dxfId="68" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -5765,7 +5784,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{BE7CEC02-BF34-4418-BA82-1F9327982DD9}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -5776,7 +5795,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="19" operator="endsWith" id="{8B8AF12F-6D43-41F5-A825-07E4CD293723}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -5787,7 +5806,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="20" operator="endsWith" id="{C08839C3-1BBE-44B3-9E34-E7A0C5F8DF48}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -5798,7 +5817,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="21" operator="endsWith" id="{609609D6-F910-4ACA-AD7C-326B654C721E}">
-            <xm:f>RIGHT(O10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(O11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -5809,7 +5828,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="22" operator="containsText" id="{B5912E85-BF07-4182-88DE-E52A178CDED9}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -5820,7 +5839,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="23" operator="containsText" id="{A99BDEDF-CF44-4426-B3A0-7E5479615479}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,O11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -5830,7 +5849,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>O10:O29</xm:sqref>
+          <xm:sqref>O11:O30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5840,7 +5859,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E30:E45 F10:F29</xm:sqref>
+          <xm:sqref>E31:E46 F11:F30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5850,10 +5869,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4BDF32-8A22-4A66-B6B5-DB37648E7DC4}">
-  <dimension ref="B2:U72"/>
+  <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5890,173 +5909,161 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M70),MAX(O10:O70)),"GR")</f>
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M71),MAX(O11:O71)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N70),MAX(P10:P70))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N71),MAX(P11:P71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N70)&gt;MAX(P10:P70),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N71)&gt;MAX(P11:P71),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>24</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f>IF($E10="Nee",0,IF(ISNUMBER(I10),I10,IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10" si="0">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10" si="1">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10" si="2">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10" si="3">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f>IF($E11="Nee",0,IF(ISNUMBER(I11),I11,IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <f>IF(J11="-",0,O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="R11" s="9">
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>5</v>
       </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="32"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="12"/>
+      <c r="S11" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="b">
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
@@ -7218,44 +7225,64 @@
       <c r="S69" s="9"/>
       <c r="T69" s="12"/>
     </row>
-    <row r="70" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="34"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="15"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="14"/>
-      <c r="T70" s="17"/>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M71" s="1"/>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="32"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="12"/>
+    </row>
+    <row r="71" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="15"/>
+      <c r="K71" s="34"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="15"/>
+      <c r="O71" s="15"/>
+      <c r="P71" s="15"/>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="14"/>
+      <c r="S71" s="14"/>
+      <c r="T71" s="17"/>
     </row>
     <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M72" s="1"/>
     </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M73" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G70">
+  <conditionalFormatting sqref="G11:G71">
     <cfRule type="expression" dxfId="59" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I70">
+  <conditionalFormatting sqref="I11:I71">
     <cfRule type="expression" dxfId="58" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K70">
+  <conditionalFormatting sqref="K11:K71">
     <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7273,7 +7300,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="30" operator="endsWith" id="{66C1998D-15BB-4F32-86A4-1C542E19908B}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7284,7 +7311,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="31" operator="endsWith" id="{6418FE22-99A5-4340-8D15-7412BDDECB23}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7295,7 +7322,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="32" operator="endsWith" id="{2E1F4C73-7BF4-44FB-95BB-E1E18C41151A}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7306,7 +7333,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="33" operator="endsWith" id="{F6D5C182-9535-4ABE-A15A-43A844BD5583}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7317,7 +7344,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="34" operator="containsText" id="{A8878CEC-0269-4E5C-8639-1D28F9774243}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7328,7 +7355,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="35" operator="containsText" id="{EBB6C8A2-6184-4577-852F-E10D11AB01B0}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7338,7 +7365,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K70</xm:sqref>
+          <xm:sqref>K11:K71</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7348,7 +7375,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E71:E86 F10:F70</xm:sqref>
+          <xm:sqref>E72:E87 F11:F71</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7358,10 +7385,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
-  <dimension ref="B2:U12"/>
+  <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7399,171 +7426,179 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M10),MAX(O10:O10)),"GR")</f>
-        <v>0</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M11),MAX(O11:O11)),"GR")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N10),MAX(P10:P10))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N11),MAX(P11:P11))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N10)&gt;MAX(P10:P10),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N11)&gt;MAX(P11:P11),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43">
-        <v>0</v>
-      </c>
-      <c r="D10" s="43">
+      <c r="C11" s="43">
+        <v>0</v>
+      </c>
+      <c r="D11" s="43">
         <v>20.93</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E11" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="42" t="s">
+      <c r="F11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="42" t="s">
+      <c r="G11" s="45"/>
+      <c r="H11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="45"/>
-      <c r="J10" s="46">
-        <v>0</v>
-      </c>
-      <c r="K10" s="47" t="str">
-        <f>IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="33">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="15">
-        <f>IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="15">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="15">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="14">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="47" t="str">
+        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="33">
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="15">
+        <f>IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="15">
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="15">
+        <f>IF(J11="-",0,O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="14">
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
-      <c r="R10" s="14">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="R11" s="14">
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>5</v>
       </c>
-      <c r="S10" s="14" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="17" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="M11" s="1"/>
+      <c r="S11" s="14" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="17" t="b">
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="M12" s="1"/>
     </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10">
+  <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="48" priority="11">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
+  <conditionalFormatting sqref="I11">
     <cfRule type="expression" dxfId="47" priority="10">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
+  <conditionalFormatting sqref="K11">
     <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -7581,7 +7616,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="36" operator="endsWith" id="{F7B08000-9400-46DD-A131-35187929BFC9}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -7592,7 +7627,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="37" operator="endsWith" id="{6D0591F0-1D10-4810-AA14-0BE30C52E201}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -7603,7 +7638,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="38" operator="endsWith" id="{EF308A70-7C0F-485F-B494-C521E8B44256}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -7614,7 +7649,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="39" operator="endsWith" id="{9B64F30E-AFD8-4003-B940-A265D08BC3ED}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -7625,7 +7660,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="40" operator="containsText" id="{DAD0CB9A-8397-4826-B226-78C7572F4129}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -7636,7 +7671,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="41" operator="containsText" id="{292412C6-8FED-46EB-8018-EC091EC7347F}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -7646,7 +7681,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10</xm:sqref>
+          <xm:sqref>K11</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -7656,13 +7691,13 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E11:E26</xm:sqref>
+          <xm:sqref>E12:E27</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FB048516-AC25-40E8-BE09-761864A40761}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$20:$B$21</xm:f>
           </x14:formula1>
-          <xm:sqref>F10</xm:sqref>
+          <xm:sqref>F11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7672,10 +7707,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4337BDE-5D5C-4814-877A-41AF49DBDF5F}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J21"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7712,201 +7747,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>1.9961410016728909E-3</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>1.9961410016728909E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
         <v>1.9961410016728909E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10:J21" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" ref="J11:J22" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K11" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>ND</v>
       </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M11" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O11" si="4">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0.6</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="26">
-        <v>0</v>
-      </c>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
       <c r="M11" s="31">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="5">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -7922,19 +7899,19 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T21" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>20</v>
@@ -7943,101 +7920,103 @@
         <v>24</v>
       </c>
       <c r="G12" s="26">
-        <v>8.0000000000000004E-4</v>
+        <v>0.6</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I12" s="26">
-        <v>5.9999999999999997E-7</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="9">
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
+        <v>+III</v>
+      </c>
+      <c r="T12" s="12" t="b">
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>6</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="26">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="26">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="K12" s="32" t="str">
-        <f t="shared" ref="K12:K21" si="7">IF(ISNUMBER($J12),S12,IF($T12,"D","ND"))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="31">
-        <f t="shared" ref="M12:M21" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+      <c r="J13" s="10">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999997E-7</v>
+      </c>
+      <c r="K13" s="32" t="str">
+        <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="31">
+        <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.99999939999999998</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" ref="N12:N21" si="9">IF(J12="-",1,M12)</f>
+      <c r="N13" s="10">
+        <f t="shared" ref="N13:N22" si="9">IF(J13="-",1,M13)</f>
         <v>0.99999939999999998</v>
       </c>
-      <c r="O12" s="10">
-        <f t="shared" ref="O12:O21" si="10">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+      <c r="O13" s="10">
+        <f t="shared" ref="O13:O22" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>1.7999999999999999E-6</v>
       </c>
-      <c r="P12" s="10">
+      <c r="P13" s="10">
         <f t="shared" si="5"/>
         <v>1.7999999999999999E-6</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
-      </c>
-      <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
-      </c>
-      <c r="S12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9">
-        <v>6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>8</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" s="26">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="26"/>
-      <c r="J13" s="10">
-        <f t="shared" si="0"/>
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="K13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="31">
-        <f t="shared" si="8"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="N13" s="10">
-        <f t="shared" si="9"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="O13" s="10">
-        <f t="shared" si="10"/>
-        <v>1.5000000000000002E-5</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" ref="P13:P21" si="11">IF(J13="-",0,O13)</f>
-        <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8058,13 +8037,13 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>20</v>
@@ -8073,17 +8052,15 @@
         <v>24</v>
       </c>
       <c r="G14" s="26">
-        <v>9.9000000000000005E-2</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="26">
-        <v>8.0000000000000005E-9</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>8.0000000000000005E-9</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="7"/>
@@ -8091,19 +8068,19 @@
       </c>
       <c r="M14" s="31">
         <f t="shared" si="8"/>
-        <v>0.999999992</v>
+        <v>0.99999499999999997</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="9"/>
-        <v>0.999999992</v>
+        <v>0.99999499999999997</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="10"/>
-        <v>2.4000000000000003E-8</v>
+        <v>1.5000000000000002E-5</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="11"/>
-        <v>2.4000000000000003E-8</v>
+        <f t="shared" ref="P14:P22" si="11">IF(J14="-",0,O14)</f>
+        <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8124,13 +8101,13 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
         <v>10</v>
-      </c>
-      <c r="D15" s="9">
-        <v>12</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>20</v>
@@ -8139,49 +8116,49 @@
         <v>24</v>
       </c>
       <c r="G15" s="26">
-        <v>0.11</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="26">
-        <v>0</v>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0000000000000005E-9</v>
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.999999992</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.999999992</v>
       </c>
       <c r="O15" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.4000000000000003E-8</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.4000000000000003E-8</v>
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8190,13 +8167,13 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>20</v>
@@ -8205,49 +8182,49 @@
         <v>24</v>
       </c>
       <c r="G16" s="26">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="26">
-        <v>2.546E-5</v>
+        <v>0</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>2.546E-5</v>
+        <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>0.99997453999999997</v>
+        <v>1</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99997453999999997</v>
+        <v>1</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>7.6379999999999997E-5</v>
+        <v>0</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>7.6379999999999997E-5</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R16" s="9">
         <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8256,13 +8233,13 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
@@ -8271,15 +8248,17 @@
         <v>24</v>
       </c>
       <c r="G17" s="26">
-        <v>6.6600000000000003E-4</v>
+        <v>0.1</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I17" s="26">
+        <v>2.546E-5</v>
+      </c>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>6.6600000000000003E-4</v>
+        <v>2.546E-5</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
@@ -8287,19 +8266,19 @@
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>0.99933399999999994</v>
+        <v>0.99997453999999997</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99933399999999994</v>
+        <v>0.99997453999999997</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>1.9980000000000002E-3</v>
+        <v>7.6379999999999997E-5</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>1.9980000000000002E-3</v>
+        <v>7.6379999999999997E-5</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8320,13 +8299,13 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>20</v>
@@ -8335,17 +8314,15 @@
         <v>24</v>
       </c>
       <c r="G18" s="26">
-        <v>6.6699999999999995E-4</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="26">
-        <v>1.2999999999999999E-3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I18" s="26"/>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>1.2999999999999999E-3</v>
+        <v>6.6600000000000003E-4</v>
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
@@ -8353,19 +8330,19 @@
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
-        <v>0.99870000000000003</v>
+        <v>0.99933399999999994</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99870000000000003</v>
+        <v>0.99933399999999994</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="10"/>
-        <v>3.8999999999999998E-3</v>
+        <v>1.9980000000000002E-3</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>3.8999999999999998E-3</v>
+        <v>1.9980000000000002E-3</v>
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -8386,13 +8363,13 @@
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
         <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>20</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>20</v>
@@ -8401,47 +8378,49 @@
         <v>24</v>
       </c>
       <c r="G19" s="26">
-        <v>0</v>
+        <v>6.6699999999999995E-4</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="26">
+        <v>1.2999999999999999E-3</v>
+      </c>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>3.8999999999999998E-3</v>
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R19" s="9">
         <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8450,13 +8429,13 @@
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <v>20</v>
-      </c>
-      <c r="D20" s="9">
-        <v>22</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>20</v>
@@ -8465,14 +8444,12 @@
         <v>24</v>
       </c>
       <c r="G20" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="26">
-        <v>0</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I20" s="26"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8516,25 +8493,29 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
         <v>22</v>
       </c>
-      <c r="D21" s="9">
+      <c r="E21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="26"/>
+      <c r="G21" s="26">
+        <v>1</v>
+      </c>
       <c r="H21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8577,24 +8558,66 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="G22" s="26"/>
-      <c r="H22" s="8"/>
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="12"/>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>+III</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>1</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
+        <v>+III</v>
+      </c>
+      <c r="T22" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -8676,17 +8699,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -8696,24 +8719,44 @@
       <c r="S27" s="9"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G27">
+  <conditionalFormatting sqref="G11:G28">
     <cfRule type="expression" dxfId="37" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I27">
+  <conditionalFormatting sqref="I11:I28">
     <cfRule type="expression" dxfId="36" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K27">
+  <conditionalFormatting sqref="K11:K28">
     <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -8731,7 +8774,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{ABB37571-79F6-4148-B9CE-2132566F3EBC}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -8742,7 +8785,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{FD55077C-3742-45D6-8C63-4F3978DD275E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -8753,7 +8796,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{4FDC3C25-E9F9-443E-A88E-2102EB566A77}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -8764,7 +8807,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{B6B08F1B-E8C6-4E24-9A04-8CE60FD8BEA8}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -8775,7 +8818,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{373E8781-7B94-4A13-B857-164B12521A98}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -8786,7 +8829,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{102DC694-4285-4E19-ACB8-CBA4D384AD46}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -8796,7 +8839,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K27</xm:sqref>
+          <xm:sqref>K11:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8806,7 +8849,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8816,10 +8859,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
-  <dimension ref="B2:U29"/>
+  <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10:J21"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8856,249 +8899,191 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M27),MAX(O10:O27)),"GR")</f>
-        <v>GR</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M28),MAX(O11:O28)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N27),MAX(P10:P27))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N28),MAX(P11:P28))</f>
         <v>3.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N27)&gt;MAX(P10:P27),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N28)&gt;MAX(P11:P28),"Ja","Nee")</f>
         <v>Ja</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5">
-        <f t="shared" ref="J10:J17" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K21" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="31">
-        <f t="shared" ref="M10:M21" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
-        <v>1</v>
-      </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N21" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10">
-        <f t="shared" ref="O10:O21" si="4">IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5">
+        <f t="shared" ref="J11:J18" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K22" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="31">
+        <f t="shared" ref="M11:M22" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <v>1</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N22" si="3">IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" ref="O11:O22" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
+        <f>IF(J11="-",0,O11)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
         <v>0.1</v>
       </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="R11" s="9">
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>5</v>
       </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
+      <c r="S11" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="b">
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C12" s="9">
         <v>2</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D12" s="9">
         <v>4</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E12" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="8" t="s">
+      <c r="G12" s="26"/>
+      <c r="H12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10" t="str">
+      <c r="I12" s="26"/>
+      <c r="J12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K11" s="32" t="str">
+      <c r="K12" s="32" t="str">
         <f t="shared" si="1"/>
         <v>ND</v>
       </c>
-      <c r="M11" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="10">
-        <f t="shared" ref="P11:P21" si="5">IF(J11="-",0,O11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>4</v>
-      </c>
-      <c r="S11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>+0</v>
-      </c>
-      <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T21" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="9">
-        <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" s="26">
-        <v>2.2900000000000001E-4</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="26">
-        <v>0</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="M12" s="31">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -9112,35 +9097,35 @@
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="P12:P22" si="5">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>0</v>
+        <v>+0</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
         <v>6</v>
-      </c>
-      <c r="D13" s="9">
-        <v>8</v>
       </c>
       <c r="E13" s="23" t="s">
         <v>20</v>
@@ -9149,15 +9134,17 @@
         <v>24</v>
       </c>
       <c r="G13" s="26">
-        <v>2.2800000000000001E-4</v>
+        <v>2.2900000000000001E-4</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0</v>
+      </c>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>2.2800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
@@ -9165,19 +9152,19 @@
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
-        <v>0.99977199999999999</v>
+        <v>1</v>
       </c>
       <c r="N13" s="10">
         <f t="shared" si="3"/>
-        <v>0.99977199999999999</v>
+        <v>1</v>
       </c>
       <c r="O13" s="10">
         <f t="shared" si="4"/>
-        <v>2.2800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="5"/>
-        <v>2.2800000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9198,13 +9185,13 @@
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>20</v>
@@ -9213,17 +9200,15 @@
         <v>24</v>
       </c>
       <c r="G14" s="26">
-        <v>0.1</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="26">
-        <v>3.2699999999999999E-3</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I14" s="26"/>
       <c r="J14" s="10">
         <f t="shared" si="0"/>
-        <v>3.2699999999999999E-3</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
@@ -9231,19 +9216,19 @@
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
-        <v>0.99673</v>
+        <v>0.99977199999999999</v>
       </c>
       <c r="N14" s="10">
         <f t="shared" si="3"/>
-        <v>0.99673</v>
+        <v>0.99977199999999999</v>
       </c>
       <c r="O14" s="10">
         <f t="shared" si="4"/>
-        <v>3.2699999999999999E-3</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="P14" s="10">
         <f t="shared" si="5"/>
-        <v>3.2699999999999999E-3</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
         <f t="array" ref="Q14">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J14,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9264,28 +9249,32 @@
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G15" s="26"/>
+        <v>24</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0.1</v>
+      </c>
       <c r="H15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I15" s="26">
+        <v>3.2699999999999999E-3</v>
+      </c>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
@@ -9293,19 +9282,19 @@
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.99673</v>
       </c>
       <c r="N15" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.99673</v>
       </c>
       <c r="O15" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9326,13 +9315,13 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>21</v>
@@ -9388,23 +9377,21 @@
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
       </c>
-      <c r="D17" s="9">
-        <v>16</v>
-      </c>
       <c r="E17" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G17" s="26"/>
       <c r="H17" s="8" t="s">
         <v>21</v>
       </c>
@@ -9452,13 +9439,13 @@
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>20</v>
@@ -9467,165 +9454,163 @@
         <v>24</v>
       </c>
       <c r="G18" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I18" s="26"/>
-      <c r="J18" s="10" t="str">
-        <f>IF($E18="Nee",0,IF(H18="Ja",IF(ISNUMBER(I18),I18,"-"),IF(ISNUMBER(G18),G18,"-")))</f>
-        <v>-</v>
+      <c r="J18" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="R18" s="9">
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>5</v>
+      </c>
+      <c r="S18" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="26">
+        <v>1</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="26"/>
+      <c r="J19" s="10" t="str">
+        <f>IF($E19="Nee",0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
+        <v>-</v>
+      </c>
+      <c r="K19" s="32" t="str">
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="M18" s="31" t="e">
+      <c r="M19" s="31" t="e">
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N18" s="10">
+      <c r="N19" s="10">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="O18" s="10" t="e">
+      <c r="O19" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="P18" s="10">
+      <c r="P19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="Q18" s="9">
-        <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+      <c r="Q19" s="9">
+        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="9">
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
         <v>4</v>
       </c>
-      <c r="S18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
+      <c r="S19" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
         <v>+0</v>
       </c>
-      <c r="T18" s="12" t="b">
+      <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D20" s="9">
         <v>20</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G20" s="26">
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="26"/>
-      <c r="J19" s="10">
-        <f t="shared" ref="J19:J21" si="7">IF($E19="Nee",0,IF(H19="Ja",IF(ISNUMBER(I19),I19,"-"),IF(ISNUMBER(G19),G19,"-")))</f>
+      <c r="I20" s="26"/>
+      <c r="J20" s="10">
+        <f t="shared" ref="J20:J22" si="7">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="K19" s="32" t="str">
+      <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M19" s="31">
+      <c r="M20" s="31">
         <f t="shared" si="2"/>
         <v>0.99999800000000005</v>
       </c>
-      <c r="N19" s="10">
+      <c r="N20" s="10">
         <f t="shared" si="3"/>
         <v>0.99999800000000005</v>
       </c>
-      <c r="O19" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="4"/>
         <v>1.9999999999999999E-6</v>
       </c>
-      <c r="P19" s="10">
+      <c r="P20" s="10">
         <f t="shared" si="5"/>
         <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
-      </c>
-      <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
-        <v>5</v>
-      </c>
-      <c r="S19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="9">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9">
-        <v>22</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="26">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="26">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="J20" s="10">
-        <f t="shared" si="7"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K20" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="31">
-        <f t="shared" si="2"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="N20" s="10">
-        <f t="shared" si="3"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="4"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="5"/>
-        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9646,13 +9631,13 @@
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
         <v>22</v>
-      </c>
-      <c r="D21" s="9">
-        <v>24</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>20</v>
@@ -9661,15 +9646,17 @@
         <v>24</v>
       </c>
       <c r="G21" s="26">
-        <v>2.0000000000000001E-9</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I21" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="J21" s="10">
         <f t="shared" si="7"/>
-        <v>2.0000000000000001E-9</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
@@ -9677,19 +9664,19 @@
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
-        <v>0.99999999799999995</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999999799999995</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="4"/>
-        <v>2.0000000000000001E-9</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="5"/>
-        <v>2.0000000000000001E-9</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -9709,24 +9696,68 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="26">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="12"/>
+      <c r="J22" s="10">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="2"/>
+        <v>0.99999999799999995</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99999999799999995</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="5"/>
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <v>5</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -9808,17 +9839,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="12"/>
     </row>
-    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="34"/>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="32"/>
       <c r="M27" s="31"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -9828,24 +9859,44 @@
       <c r="S27" s="9"/>
       <c r="T27" s="12"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M28" s="1"/>
+    <row r="28" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="15"/>
+      <c r="K28" s="34"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="12"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M29" s="1"/>
     </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G27">
+  <conditionalFormatting sqref="G11:G28">
     <cfRule type="expression" dxfId="26" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I27">
+  <conditionalFormatting sqref="I11:I28">
     <cfRule type="expression" dxfId="25" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K27">
+  <conditionalFormatting sqref="K11:K28">
     <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -9863,7 +9914,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{1EBB7798-64BC-4E62-B5ED-EDC8D12F766E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -9874,7 +9925,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{D525A4D3-4210-4434-88AA-077EC405481F}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -9885,7 +9936,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{70AE3533-A03A-4765-98EF-A2F7520BB2C5}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -9896,7 +9947,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{3BE27E41-6EB9-4688-923B-987C0F78C96E}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -9907,7 +9958,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{9D267873-A89D-4F45-952A-AA5EA8DE68C2}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -9918,7 +9969,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{21BE4470-53F7-4774-9EF3-925E463CB556}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -9928,7 +9979,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K27</xm:sqref>
+          <xm:sqref>K11:K28</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9938,7 +9989,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E28:E43 F10:F27</xm:sqref>
+          <xm:sqref>E29:E44 F11:F28</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9948,10 +9999,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
-  <dimension ref="B2:U28"/>
+  <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9988,199 +10039,143 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="26" t="str">
-        <f>IFERROR(MIN(1-PRODUCT(M10:M26),MAX(O10:O26)),"GR")</f>
-        <v>GR</v>
+        <v>110</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="26" t="str">
+        <f>IFERROR(MIN(1-PRODUCT(M11:M27),MAX(O11:O27)),"GR")</f>
+        <v>GR</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="26">
-        <f>MIN(1-PRODUCT(N10:N26),MAX(P10:P26))</f>
+      <c r="C6" s="26">
+        <f>MIN(1-PRODUCT(N11:N27),MAX(P11:P27))</f>
         <v>2.8437656524269217E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="41" t="s">
+    <row r="7" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="17" t="str">
-        <f>IF(1-PRODUCT(N10:N26)&gt;MAX(P10:P26),"Ja","Nee")</f>
+      <c r="C7" s="17" t="str">
+        <f>IF(1-PRODUCT(N11:N27)&gt;MAX(P11:P27),"Ja","Nee")</f>
         <v>Nee</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
+    <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19" t="s">
+    <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E10" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K10" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="36" t="s">
+      <c r="L10" s="2"/>
+      <c r="M10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="N9" s="37" t="s">
+      <c r="N10" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="37" t="s">
+      <c r="O10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P9" s="37" t="s">
+      <c r="P10" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="Q9" s="38" t="s">
+      <c r="Q10" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="R9" s="38" t="s">
+      <c r="R10" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="S9" s="4"/>
-      <c r="T9" s="39" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="U9" s="35"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="25"/>
-      <c r="H10" s="3" t="s">
+      <c r="G11" s="25"/>
+      <c r="H11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="5" t="str">
-        <f t="shared" ref="J10:J21" si="0">IF($E10="Nee",0,IF(H10="Ja",IF(ISNUMBER(I10),I10,"-"),IF(ISNUMBER(G10),G10,"-")))</f>
+      <c r="I11" s="25"/>
+      <c r="J11" s="5" t="str">
+        <f t="shared" ref="J11:J22" si="0">IF($E11="Nee",0,IF(H11="Ja",IF(ISNUMBER(I11),I11,"-"),IF(ISNUMBER(G11),G11,"-")))</f>
         <v>-</v>
       </c>
-      <c r="K10" s="30" t="str">
-        <f t="shared" ref="K10:K11" si="1">IF(ISNUMBER($J10),S10,IF($T10,"D","ND"))</f>
+      <c r="K11" s="30" t="str">
+        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
         <v>ND</v>
       </c>
-      <c r="M10" s="31" t="e">
-        <f t="shared" ref="M10:M11" si="2">IF(AND(F10="Geen faalkans",H10="Nee"),1,1-J10)</f>
+      <c r="M11" s="31" t="e">
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N10" s="10">
-        <f t="shared" ref="N10:N11" si="3">IF(J10="-",1,M10)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="10" t="e">
-        <f>IF(AND(F10="Geen faalkans",H10="Nee"),0,J10*$C$3)</f>
+      <c r="N11" s="10">
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <v>1</v>
+      </c>
+      <c r="O11" s="10" t="e">
+        <f>IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P10" s="10">
-        <f>IF(J10="-",0,O10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="array" ref="Q10">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J10,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="9">
-        <f>IFERROR(MATCH($Q10,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R10)</f>
-        <v>+III</v>
-      </c>
-      <c r="T10" s="12" t="b">
-        <f>IF($E10="Ja",IF($H10="Ja",NOT(ISNUMBER($I10)),FALSE),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="26"/>
-      <c r="J11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="32" t="str">
-        <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M11" s="31">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
-        <v>0</v>
-      </c>
       <c r="P11" s="10">
-        <f t="shared" ref="P11:P12" si="5">IF(J11="-",0,O11)</f>
+        <f>IF(J11="-",0,O11)</f>
         <v>0</v>
       </c>
       <c r="Q11" s="9">
@@ -10196,19 +10191,19 @@
         <v>+III</v>
       </c>
       <c r="T11" s="12" t="b">
-        <f t="shared" ref="T11:T21" si="6">IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
+        <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
         <v>4</v>
-      </c>
-      <c r="D12" s="9">
-        <v>6</v>
       </c>
       <c r="E12" s="23" t="s">
         <v>20</v>
@@ -10217,7 +10212,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="26">
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>21</v>
@@ -10225,101 +10220,103 @@
       <c r="I12" s="26"/>
       <c r="J12" s="10">
         <f t="shared" si="0"/>
-        <v>2.4E-2</v>
+        <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f t="shared" ref="K12:K21" si="7">IF(ISNUMBER($J12),S12,IF($T12,"D","ND"))</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M21" si="8">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
-        <v>0.97599999999999998</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N21" si="9">IF(J12="-",1,M12)</f>
-        <v>0.97599999999999998</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="4"/>
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" ref="O12:O13" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" si="5"/>
-        <v>4.8000000000000001E-2</v>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <v>0</v>
       </c>
       <c r="Q12" s="9">
         <f t="array" ref="Q12">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J12,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R12" s="9">
         <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R12)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
         <v>6</v>
       </c>
-      <c r="D13" s="9">
-        <v>8</v>
-      </c>
       <c r="E13" s="23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="26"/>
+        <v>26</v>
+      </c>
+      <c r="G13" s="26">
+        <v>2.4E-2</v>
+      </c>
       <c r="H13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="26"/>
       <c r="J13" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4E-2</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>+III</v>
+        <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <v>0</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
+        <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <v>0.97599999999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="9"/>
-        <v>1</v>
+        <f t="shared" ref="N13:N22" si="9">IF(J13="-",1,M13)</f>
+        <v>0.97599999999999998</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O21" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" ref="P13:P21" si="11">IF(J13="-",0,O13)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q13" s="9">
         <f t="array" ref="Q13">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J13,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R13" s="9">
         <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>+III</v>
+        <v>0</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10328,13 +10325,13 @@
     </row>
     <row r="14" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="9">
+        <v>6</v>
+      </c>
+      <c r="D14" s="9">
         <v>8</v>
-      </c>
-      <c r="D14" s="9">
-        <v>10</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>21</v>
@@ -10364,11 +10361,11 @@
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="O14:O22" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="P14:P22" si="11">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -10390,36 +10387,32 @@
     </row>
     <row r="15" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="9">
+        <v>8</v>
+      </c>
+      <c r="D15" s="9">
         <v>10</v>
       </c>
-      <c r="D15" s="9">
-        <v>12</v>
-      </c>
       <c r="E15" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="70">
-        <v>0.1</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G15" s="26"/>
       <c r="H15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="26">
-        <v>5.9999999999999995E-25</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="I15" s="26"/>
       <c r="J15" s="10">
         <f t="shared" si="0"/>
-        <v>5.9999999999999995E-25</v>
+        <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="8"/>
@@ -10431,23 +10424,23 @@
       </c>
       <c r="O15" s="10">
         <f t="shared" si="10"/>
-        <v>1.1999999999999999E-24</v>
+        <v>0</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="11"/>
-        <v>1.1999999999999999E-24</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="9">
         <f t="array" ref="Q15">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J15,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="9">
         <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>0</v>
+        <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10456,13 +10449,13 @@
     </row>
     <row r="16" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="9">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
         <v>12</v>
-      </c>
-      <c r="D16" s="9">
-        <v>14</v>
       </c>
       <c r="E16" s="23" t="s">
         <v>20</v>
@@ -10470,18 +10463,18 @@
       <c r="F16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="26">
-        <v>9.9000000000000005E-2</v>
+      <c r="G16" s="70">
+        <v>0.1</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I16" s="26">
-        <v>6.9999999999999999E-6</v>
+        <v>5.9999999999999995E-25</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="0"/>
-        <v>6.9999999999999999E-6</v>
+        <v>5.9999999999999995E-25</v>
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10489,19 +10482,19 @@
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
-        <v>0.99999300000000002</v>
+        <v>1</v>
       </c>
       <c r="N16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999300000000002</v>
+        <v>1</v>
       </c>
       <c r="O16" s="10">
         <f t="shared" si="10"/>
-        <v>1.4E-5</v>
+        <v>1.1999999999999999E-24</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="11"/>
-        <v>1.4E-5</v>
+        <v>1.1999999999999999E-24</v>
       </c>
       <c r="Q16" s="9">
         <f t="array" ref="Q16">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J16,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10522,13 +10515,13 @@
     </row>
     <row r="17" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="9">
+        <v>12</v>
+      </c>
+      <c r="D17" s="9">
         <v>14</v>
-      </c>
-      <c r="D17" s="9">
-        <v>16</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>20</v>
@@ -10537,17 +10530,17 @@
         <v>26</v>
       </c>
       <c r="G17" s="26">
-        <v>0.11</v>
+        <v>9.9000000000000005E-2</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I17" s="26">
-        <v>1.9999999999999999E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="0"/>
-        <v>1.9999999999999999E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10555,19 +10548,19 @@
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
-        <v>0.99999800000000005</v>
+        <v>0.99999300000000002</v>
       </c>
       <c r="N17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999800000000005</v>
+        <v>0.99999300000000002</v>
       </c>
       <c r="O17" s="10">
         <f t="shared" si="10"/>
-        <v>3.9999999999999998E-6</v>
+        <v>1.4E-5</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="11"/>
-        <v>3.9999999999999998E-6</v>
+        <v>1.4E-5</v>
       </c>
       <c r="Q17" s="9">
         <f t="array" ref="Q17">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J17,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10588,13 +10581,13 @@
     </row>
     <row r="18" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9">
         <v>16</v>
-      </c>
-      <c r="C18" s="9">
-        <v>16</v>
-      </c>
-      <c r="D18" s="9">
-        <v>18</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>20</v>
@@ -10603,17 +10596,17 @@
         <v>26</v>
       </c>
       <c r="G18" s="26">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="H18" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I18" s="26">
-        <v>5.0000000000000001E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="0"/>
-        <v>5.0000000000000001E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10621,19 +10614,19 @@
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
-        <v>0.99950000000000006</v>
+        <v>0.99999800000000005</v>
       </c>
       <c r="N18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99950000000000006</v>
+        <v>0.99999800000000005</v>
       </c>
       <c r="O18" s="10">
         <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="Q18" s="9">
         <f t="array" ref="Q18">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J18,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10654,13 +10647,13 @@
     </row>
     <row r="19" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="9">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
         <v>18</v>
-      </c>
-      <c r="D19" s="9">
-        <v>20</v>
       </c>
       <c r="E19" s="23" t="s">
         <v>20</v>
@@ -10669,15 +10662,17 @@
         <v>26</v>
       </c>
       <c r="G19" s="26">
-        <v>2.9999999999999998E-15</v>
+        <v>0.1</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="I19" s="26">
+        <v>5.0000000000000001E-4</v>
+      </c>
       <c r="J19" s="10">
         <f t="shared" si="0"/>
-        <v>2.9999999999999998E-15</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10685,19 +10680,19 @@
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
-        <v>0.999999999999997</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N19" s="10">
         <f t="shared" si="9"/>
-        <v>0.999999999999997</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="O19" s="10">
         <f t="shared" si="10"/>
-        <v>5.9999999999999997E-15</v>
+        <v>1E-3</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="11"/>
-        <v>5.9999999999999997E-15</v>
+        <v>1E-3</v>
       </c>
       <c r="Q19" s="9">
         <f t="array" ref="Q19">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J19,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10718,13 +10713,13 @@
     </row>
     <row r="20" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="9">
         <v>18</v>
       </c>
-      <c r="C20" s="9">
+      <c r="D20" s="9">
         <v>20</v>
-      </c>
-      <c r="D20" s="9">
-        <v>22</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>20</v>
@@ -10733,7 +10728,7 @@
         <v>26</v>
       </c>
       <c r="G20" s="26">
-        <v>4.0000000000000003E-5</v>
+        <v>2.9999999999999998E-15</v>
       </c>
       <c r="H20" s="8" t="s">
         <v>21</v>
@@ -10741,7 +10736,7 @@
       <c r="I20" s="26"/>
       <c r="J20" s="10">
         <f t="shared" si="0"/>
-        <v>4.0000000000000003E-5</v>
+        <v>2.9999999999999998E-15</v>
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10749,19 +10744,19 @@
       </c>
       <c r="M20" s="31">
         <f t="shared" si="8"/>
-        <v>0.99995999999999996</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="N20" s="10">
         <f t="shared" si="9"/>
-        <v>0.99995999999999996</v>
+        <v>0.999999999999997</v>
       </c>
       <c r="O20" s="10">
         <f t="shared" si="10"/>
-        <v>8.0000000000000007E-5</v>
+        <v>5.9999999999999997E-15</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="11"/>
-        <v>8.0000000000000007E-5</v>
+        <v>5.9999999999999997E-15</v>
       </c>
       <c r="Q20" s="9">
         <f t="array" ref="Q20">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J20,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10782,13 +10777,13 @@
     </row>
     <row r="21" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9">
+        <v>20</v>
+      </c>
+      <c r="D21" s="9">
         <v>22</v>
-      </c>
-      <c r="D21" s="9">
-        <v>24</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>20</v>
@@ -10797,7 +10792,7 @@
         <v>26</v>
       </c>
       <c r="G21" s="26">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>21</v>
@@ -10805,7 +10800,7 @@
       <c r="I21" s="26"/>
       <c r="J21" s="10">
         <f t="shared" si="0"/>
-        <v>4.0000000000000001E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="7"/>
@@ -10813,19 +10808,19 @@
       </c>
       <c r="M21" s="31">
         <f t="shared" si="8"/>
-        <v>0.996</v>
+        <v>0.99995999999999996</v>
       </c>
       <c r="N21" s="10">
         <f t="shared" si="9"/>
-        <v>0.996</v>
+        <v>0.99995999999999996</v>
       </c>
       <c r="O21" s="10">
         <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="11"/>
-        <v>8.0000000000000002E-3</v>
+        <v>8.0000000000000007E-5</v>
       </c>
       <c r="Q21" s="9">
         <f t="array" ref="Q21">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J21,'Normen en duidingsklassen'!$E$13:$E$20))</f>
@@ -10845,24 +10840,68 @@
       </c>
     </row>
     <row r="22" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="9">
+        <v>22</v>
+      </c>
+      <c r="D22" s="9">
+        <v>24</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="26">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="26"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="12"/>
+      <c r="J22" s="10">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="8"/>
+        <v>0.996</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="9"/>
+        <v>0.996</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="10"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P22" s="10">
+        <f t="shared" si="11"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="array" ref="Q22">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J22,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0.1</v>
+      </c>
+      <c r="R22" s="9">
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
+        <v>5</v>
+      </c>
+      <c r="S22" s="9" t="str">
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="12" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="8"/>
@@ -10884,7 +10923,7 @@
       <c r="S23" s="9"/>
       <c r="T23" s="12"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -10924,44 +10963,64 @@
       <c r="S25" s="9"/>
       <c r="T25" s="12"/>
     </row>
-    <row r="26" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="34"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="17"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M27" s="1"/>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="32"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="12"/>
+    </row>
+    <row r="27" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="34"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="17"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.25">
       <c r="M28" s="1"/>
     </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M29" s="1"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G10:G14 G16:G26">
+  <conditionalFormatting sqref="G11:G15 G17:G27">
     <cfRule type="expression" dxfId="15" priority="5">
-      <formula>IF($E10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I26">
+  <conditionalFormatting sqref="I11:I27">
     <cfRule type="expression" dxfId="14" priority="4">
-      <formula>IF($H10="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H11="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K10:K26">
+  <conditionalFormatting sqref="K11:K27">
     <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -10979,7 +11038,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{9FC208BF-EAC7-4689-9C69-B4C0AF97788A}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$20))='Normen en duidingsklassen'!$D$20</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$20</xm:f>
             <x14:dxf>
               <fill>
@@ -10990,7 +11049,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{C5FD292B-C2DC-4845-B28E-24E6E20098B8}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$19))='Normen en duidingsklassen'!$D$19</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$19</xm:f>
             <x14:dxf>
               <fill>
@@ -11001,7 +11060,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="8" operator="endsWith" id="{108B8320-33E6-4019-B0C6-D42133630008}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$18))='Normen en duidingsklassen'!$D$18</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$18</xm:f>
             <x14:dxf>
               <fill>
@@ -11012,7 +11071,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="9" operator="endsWith" id="{6D9F7B0D-8F82-4139-BF58-3DF997FB327D}">
-            <xm:f>RIGHT(K10,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
+            <xm:f>RIGHT(K11,LEN('Normen en duidingsklassen'!$D$16))='Normen en duidingsklassen'!$D$16</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$16</xm:f>
             <x14:dxf>
               <fill>
@@ -11023,7 +11082,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="10" operator="containsText" id="{695ED08F-7F5E-4AA0-B9EC-1C679CD14FF4}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$13,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$13</xm:f>
             <x14:dxf>
               <fill>
@@ -11034,7 +11093,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="11" operator="containsText" id="{7A0DEDA9-62F6-4584-A60C-AC430DA6FB4A}">
-            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K10)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('Normen en duidingsklassen'!$D$14,K11)))</xm:f>
             <xm:f>'Normen en duidingsklassen'!$D$14</xm:f>
             <x14:dxf>
               <fill>
@@ -11044,7 +11103,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K10:K26</xm:sqref>
+          <xm:sqref>K11:K27</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -11054,7 +11113,7 @@
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>E27:E42 F10:F26</xm:sqref>
+          <xm:sqref>E28:E43 F11:F27</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18135C37-088E-436A-8198-1F7790746856}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDA17B-8C98-4EB9-800B-E5D1CA91E956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="4860" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="110">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>+0</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>-I</t>
@@ -404,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8EDA97"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -721,10 +712,9 @@
     <xf numFmtId="49" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1674,19 +1664,19 @@
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="53" t="s">
+      <c r="E2" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="54" t="s">
         <v>85</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="54" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -1694,7 +1684,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>20</v>
@@ -1708,10 +1698,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>20</v>
@@ -1725,10 +1715,10 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>21</v>
@@ -1737,21 +1727,21 @@
         <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>21</v>
@@ -1759,16 +1749,16 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>21</v>
@@ -1776,10 +1766,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
@@ -1793,16 +1783,16 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>21</v>
@@ -1810,16 +1800,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>21</v>
@@ -1827,10 +1817,10 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>21</v>
@@ -1844,10 +1834,10 @@
     </row>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>100</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>101</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>21</v>
@@ -1856,7 +1846,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1920,7 +1910,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D2" s="1" t="str">
         <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
@@ -1941,7 +1931,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1">
         <f>1-PRODUCT(H7:H12)</f>
@@ -1962,7 +1952,7 @@
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1974,18 +1964,18 @@
         <v>41</v>
       </c>
       <c r="E6" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="H6" s="35" t="s">
         <v>79</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>STPH!C5</f>
@@ -2007,7 +1997,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="31" t="str">
         <f>STBI!C5</f>
@@ -2029,7 +2019,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="31">
         <f>GEKB!C5</f>
@@ -2051,7 +2041,7 @@
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" s="31">
         <f>DA!C5</f>
@@ -2073,7 +2063,7 @@
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="31">
         <f>STKWp!C5</f>
@@ -2095,7 +2085,7 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" s="31" t="str">
         <f>HTKW!C5</f>
@@ -2232,29 +2222,29 @@
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
-      <c r="D2" s="69" t="s">
-        <v>107</v>
+      <c r="D2" s="68" t="s">
+        <v>106</v>
       </c>
       <c r="E2" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="54" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -2266,7 +2256,7 @@
       </c>
       <c r="D3" s="22" t="str">
         <f t="shared" ref="D3:D14" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E3" s="4" t="str">
         <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2278,11 +2268,11 @@
       </c>
       <c r="G3" s="4" t="str">
         <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2290,7 +2280,7 @@
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K3" s="7" t="str">
         <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2306,7 +2296,7 @@
       </c>
       <c r="D4" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E4" s="9" t="str">
         <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2314,15 +2304,15 @@
       </c>
       <c r="F4" s="9" t="str">
         <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G4" s="9" t="str">
         <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2346,7 +2336,7 @@
       </c>
       <c r="D5" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E5" s="9" t="str">
         <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2354,27 +2344,27 @@
       </c>
       <c r="F5" s="9" t="str">
         <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G5" s="9" t="str">
         <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K5" s="12" t="str">
         <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -2398,19 +2388,19 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K6" s="12" t="str">
         <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2426,31 +2416,31 @@
       </c>
       <c r="D7" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E7" s="9" t="str">
         <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F7" s="9" t="str">
         <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G7" s="9" t="str">
         <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K7" s="12" t="str">
         <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2466,7 +2456,7 @@
       </c>
       <c r="D8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E8" s="9" t="str">
         <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2478,11 +2468,11 @@
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2490,11 +2480,11 @@
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K8" s="12" t="str">
         <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
@@ -2506,7 +2496,7 @@
       </c>
       <c r="D9" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E9" s="9" t="str">
         <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2514,27 +2504,27 @@
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K9" s="12" t="str">
         <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
@@ -2546,7 +2536,7 @@
       </c>
       <c r="D10" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E10" s="9" t="str">
         <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2554,27 +2544,27 @@
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K10" s="12" t="str">
         <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
@@ -2590,7 +2580,7 @@
       </c>
       <c r="E11" s="9" t="str">
         <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F11" s="9" t="str">
         <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2598,15 +2588,15 @@
       </c>
       <c r="G11" s="9" t="str">
         <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H11" s="9" t="str">
         <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -2614,7 +2604,7 @@
       </c>
       <c r="K11" s="12" t="str">
         <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
@@ -2626,7 +2616,7 @@
       </c>
       <c r="D12" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E12" s="9" t="str">
         <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2638,11 +2628,11 @@
       </c>
       <c r="G12" s="9" t="str">
         <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H12" s="9" t="str">
         <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2650,11 +2640,11 @@
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K12" s="12" t="str">
         <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
@@ -2666,23 +2656,23 @@
       </c>
       <c r="D13" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E13" s="9" t="str">
         <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F13" s="9" t="str">
         <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G13" s="9" t="str">
         <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H13" s="9" t="str">
         <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2690,11 +2680,11 @@
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K13" s="12" t="str">
         <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -2706,23 +2696,23 @@
       </c>
       <c r="D14" s="23" t="str">
         <f t="shared" si="0"/>
-        <v>+0</v>
+        <v>-I</v>
       </c>
       <c r="E14" s="9" t="str">
         <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="F14" s="9" t="str">
         <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="G14" s="9" t="str">
         <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="H14" s="9" t="str">
         <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2730,11 +2720,11 @@
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="K14" s="12" t="str">
         <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
@@ -2862,8 +2852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2878,7 +2868,7 @@
         <v>53</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>40</v>
@@ -2907,7 +2897,7 @@
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="63" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="5">
@@ -2920,12 +2910,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="9">
         <v>24</v>
       </c>
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="64" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="10">
@@ -2938,7 +2928,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="65" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="10">
@@ -2951,7 +2941,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="66" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="10">
@@ -2964,7 +2954,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="67" t="s">
         <v>37</v>
       </c>
       <c r="E8" s="15">
@@ -2977,12 +2967,12 @@
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D12" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="54" t="s">
         <v>39</v>
@@ -2993,7 +2983,7 @@
         <v>54</v>
       </c>
       <c r="E13" s="26">
-        <f>1/30*B3</f>
+        <f>1/1000*B3</f>
         <v>0</v>
       </c>
     </row>
@@ -3002,7 +2992,7 @@
         <v>55</v>
       </c>
       <c r="E14" s="26">
-        <f>1/10*B3</f>
+        <f>1/100*B3</f>
         <v>0</v>
       </c>
     </row>
@@ -3011,7 +3001,7 @@
         <v>56</v>
       </c>
       <c r="E15" s="26">
-        <f>1/3*B3</f>
+        <f>1/10*B3</f>
         <v>0</v>
       </c>
     </row>
@@ -3038,38 +3028,32 @@
         <v>59</v>
       </c>
       <c r="E18" s="26">
-        <f>3*B4</f>
-        <v>0.30000000000000004</v>
+        <f>10*B4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D19" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="26">
-        <f>10*B4</f>
+      <c r="E19" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D21" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D23" s="28"/>
@@ -3144,7 +3128,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>20</v>
@@ -3179,7 +3163,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3190,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -3239,14 +3223,14 @@
         <v>46</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -3602,7 +3586,7 @@
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="4"/>
@@ -3630,7 +3614,7 @@
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="9"/>
@@ -3895,7 +3879,7 @@
       </c>
       <c r="O19" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q19" s="31">
         <f t="shared" si="4"/>
@@ -3923,7 +3907,7 @@
       </c>
       <c r="W19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X19" s="12" t="b">
         <f t="shared" si="9"/>
@@ -4053,7 +4037,7 @@
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="4"/>
@@ -4081,7 +4065,7 @@
       </c>
       <c r="W21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X21" s="12" t="b">
         <f t="shared" si="9"/>
@@ -4130,7 +4114,7 @@
       </c>
       <c r="O22" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="4"/>
@@ -4158,7 +4142,7 @@
       </c>
       <c r="W22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X22" s="12" t="b">
         <f t="shared" si="9"/>
@@ -4508,7 +4492,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -4521,7 +4505,7 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>20</v>
@@ -4556,7 +4540,7 @@
     </row>
     <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="Q9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4567,7 +4551,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>3</v>
@@ -4616,14 +4600,14 @@
         <v>46</v>
       </c>
       <c r="U10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="V10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="V10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="W10" s="4"/>
       <c r="X10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y10" s="35"/>
     </row>
@@ -4744,7 +4728,7 @@
       </c>
       <c r="O12" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q12" s="31">
         <f t="shared" si="4"/>
@@ -4772,7 +4756,7 @@
       </c>
       <c r="W12" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X12" s="12" t="b">
         <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
@@ -4820,7 +4804,7 @@
       </c>
       <c r="O13" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q13" s="31">
         <f t="shared" si="4"/>
@@ -4848,7 +4832,7 @@
       </c>
       <c r="W13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X13" s="12" t="b">
         <f t="shared" si="8"/>
@@ -4968,7 +4952,7 @@
       </c>
       <c r="O15" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q15" s="31">
         <f t="shared" si="4"/>
@@ -4996,7 +4980,7 @@
       </c>
       <c r="W15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5121,7 +5105,7 @@
       </c>
       <c r="O17" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q17" s="31">
         <f t="shared" si="4"/>
@@ -5149,7 +5133,7 @@
       </c>
       <c r="W17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X17" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5202,7 +5186,7 @@
       </c>
       <c r="O18" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q18" s="31">
         <f t="shared" si="4"/>
@@ -5230,7 +5214,7 @@
       </c>
       <c r="W18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X18" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5441,7 +5425,7 @@
       </c>
       <c r="O21" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q21" s="31">
         <f t="shared" si="4"/>
@@ -5469,7 +5453,7 @@
       </c>
       <c r="W21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X21" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5522,7 +5506,7 @@
       </c>
       <c r="O22" s="32" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="Q22" s="31">
         <f t="shared" si="4"/>
@@ -5550,7 +5534,7 @@
       </c>
       <c r="W22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="X22" s="12" t="b">
         <f t="shared" si="8"/>
@@ -5896,7 +5880,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -5909,7 +5893,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -5944,7 +5928,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5986,26 +5970,26 @@
         <v>43</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="35"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -6030,7 +6014,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -6058,7 +6042,7 @@
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -7413,7 +7397,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7426,7 +7410,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -7461,7 +7445,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7509,14 +7493,14 @@
         <v>46</v>
       </c>
       <c r="Q10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -7546,7 +7530,7 @@
       </c>
       <c r="K11" s="47" t="str">
         <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -7574,7 +7558,7 @@
       </c>
       <c r="S11" s="14" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T11" s="17" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER(#REF!)),FALSE),FALSE)</f>
@@ -7734,7 +7718,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -7747,7 +7731,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -7782,7 +7766,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7824,20 +7808,20 @@
         <v>43</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -8000,7 +7984,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
@@ -8028,7 +8012,7 @@
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8064,7 +8048,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="8"/>
@@ -8092,7 +8076,7 @@
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8130,7 +8114,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="8"/>
@@ -8158,7 +8142,7 @@
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8262,7 +8246,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
@@ -8290,7 +8274,7 @@
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8326,7 +8310,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
@@ -8354,7 +8338,7 @@
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8392,7 +8376,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
@@ -8420,7 +8404,7 @@
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
@@ -8886,7 +8870,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -8899,7 +8883,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -8934,7 +8918,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8976,20 +8960,20 @@
         <v>43</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -9020,7 +9004,7 @@
       </c>
       <c r="K11" s="30" t="str">
         <f t="shared" ref="K11:K22" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M11" s="31">
         <f t="shared" ref="M11:M22" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -9048,7 +9032,7 @@
       </c>
       <c r="S11" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R11)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T11" s="12" t="b">
         <f>IF($E11="Ja",IF($H11="Ja",NOT(ISNUMBER($I11)),FALSE),FALSE)</f>
@@ -9148,7 +9132,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" si="2"/>
@@ -9176,7 +9160,7 @@
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9212,7 +9196,7 @@
       </c>
       <c r="K14" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M14" s="31">
         <f t="shared" si="2"/>
@@ -9240,7 +9224,7 @@
       </c>
       <c r="S14" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R14)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9278,7 +9262,7 @@
       </c>
       <c r="K15" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M15" s="31">
         <f t="shared" si="2"/>
@@ -9306,7 +9290,7 @@
       </c>
       <c r="S15" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R15)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9340,7 +9324,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="2"/>
@@ -9368,7 +9352,7 @@
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9402,7 +9386,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="2"/>
@@ -9430,7 +9414,7 @@
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9466,7 +9450,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="2"/>
@@ -9494,7 +9478,7 @@
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9594,7 +9578,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="2"/>
@@ -9622,7 +9606,7 @@
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9660,7 +9644,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="2"/>
@@ -9688,7 +9672,7 @@
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
         <f t="shared" si="6"/>
@@ -9724,7 +9708,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="2"/>
@@ -9752,7 +9736,7 @@
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10001,7 +9985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -10026,7 +10010,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
@@ -10039,7 +10023,7 @@
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>21</v>
@@ -10074,7 +10058,7 @@
     </row>
     <row r="9" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10116,20 +10100,20 @@
         <v>43</v>
       </c>
       <c r="O10" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="P10" s="37" t="s">
-        <v>83</v>
-      </c>
       <c r="Q10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="R10" s="38" t="s">
         <v>63</v>
-      </c>
-      <c r="R10" s="38" t="s">
-        <v>64</v>
       </c>
       <c r="S10" s="4"/>
       <c r="T10" s="39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U10" s="35"/>
     </row>
@@ -10288,7 +10272,7 @@
       </c>
       <c r="K13" s="32" t="str">
         <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M13" s="31">
         <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
@@ -10316,7 +10300,7 @@
       </c>
       <c r="S13" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R13)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10463,7 +10447,7 @@
       <c r="F16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <v>0.1</v>
       </c>
       <c r="H16" s="8" t="s">
@@ -10478,7 +10462,7 @@
       </c>
       <c r="K16" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M16" s="31">
         <f t="shared" si="8"/>
@@ -10506,7 +10490,7 @@
       </c>
       <c r="S16" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R16)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10544,7 +10528,7 @@
       </c>
       <c r="K17" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M17" s="31">
         <f t="shared" si="8"/>
@@ -10572,7 +10556,7 @@
       </c>
       <c r="S17" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R17)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10610,7 +10594,7 @@
       </c>
       <c r="K18" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M18" s="31">
         <f t="shared" si="8"/>
@@ -10638,7 +10622,7 @@
       </c>
       <c r="S18" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R18)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10676,7 +10660,7 @@
       </c>
       <c r="K19" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M19" s="31">
         <f t="shared" si="8"/>
@@ -10704,7 +10688,7 @@
       </c>
       <c r="S19" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R19)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10740,7 +10724,7 @@
       </c>
       <c r="K20" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M20" s="31">
         <f t="shared" si="8"/>
@@ -10768,7 +10752,7 @@
       </c>
       <c r="S20" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R20)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10804,7 +10788,7 @@
       </c>
       <c r="K21" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M21" s="31">
         <f t="shared" si="8"/>
@@ -10832,7 +10816,7 @@
       </c>
       <c r="S21" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R21)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
         <f t="shared" si="6"/>
@@ -10868,7 +10852,7 @@
       </c>
       <c r="K22" s="32" t="str">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="M22" s="31">
         <f t="shared" si="8"/>
@@ -10896,7 +10880,7 @@
       </c>
       <c r="S22" s="9" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,R22)</f>
-        <v>0</v>
+        <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
         <f t="shared" si="6"/>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EDA17B-8C98-4EB9-800B-E5D1CA91E956}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761D57C-5327-4E9A-849C-EF243BA7CB5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="111">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>Lengte-effect</t>
+  </si>
+  <si>
+    <t>Gecombineerd (tussentijds)</t>
   </si>
 </sst>
 </file>
@@ -2203,51 +2206,55 @@
   <sheetPr>
     <tabColor rgb="FF9900FF"/>
   </sheetPr>
-  <dimension ref="B1:K45"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="9"/>
       <c r="C2" s="14"/>
       <c r="D2" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="H2" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="I2" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="K2" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="L2" s="54" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
         <v>0</v>
       </c>
@@ -2255,39 +2262,43 @@
         <v>2</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D14" si="0">IF(COUNTIF(E3:K3,"D")&gt;0,"D",IF(COUNTIF(E3:K3,"-III")&gt;0,"-III",IF(COUNTIF(E3:K3,"-II")&gt;0,"-II",IF(COUNTIF(E3:K3,"-I")&gt;0,"-I",IF(COUNTIF(E3:K3,"+0")&gt;0,"+0",IF(COUNTIF(E3:K3,"+I")&gt;0,"+I",IF(COUNTIF(E3:K3,"+II")&gt;0,"+II",IF(COUNTIF(E3:K3,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>-I</v>
-      </c>
-      <c r="E3" s="4" t="str">
-        <f t="array" ref="E3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <f t="shared" ref="D3:D14" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
+        <v>-I</v>
+      </c>
+      <c r="E3" s="22" t="str">
+        <f t="shared" ref="E3:E14" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
+        <v>-I</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
-      <c r="F3" s="4" t="str">
-        <f t="array" ref="F3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G3" s="4" t="str">
+        <f t="array" ref="G3">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B3,C3),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G3" s="4" t="str">
-        <f t="array" ref="G3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="H3" s="4" t="str">
-        <f t="array" ref="H3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I3" s="4" t="str">
-        <f t="array" ref="I3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J3" s="4" t="str">
+        <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
-      <c r="J3" s="4" t="str">
-        <f t="array" ref="J3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K3" s="7" t="str">
-        <f t="array" ref="K3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="K3" s="4" t="str">
+        <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L3" s="7" t="str">
+        <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="8">
         <v>2</v>
       </c>
@@ -2298,36 +2309,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f t="array" ref="E4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E4" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f t="array" ref="F4">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B4,C4),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f t="array" ref="F4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="G4" s="9" t="str">
-        <f t="array" ref="G4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G4">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B4,C4),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H4" s="9" t="str">
-        <f t="array" ref="H4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I4" s="9" t="str">
-        <f t="array" ref="I4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J4" s="9" t="str">
+        <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J4" s="9" t="str">
-        <f t="array" ref="J4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+      <c r="K4" s="9" t="str">
+        <f t="array" ref="K4">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B4,C4),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>ND</v>
       </c>
-      <c r="K4" s="12" t="str">
-        <f t="array" ref="K4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+      <c r="L4" s="12" t="str">
+        <f t="array" ref="L4">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B4,C4),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="8">
         <v>4</v>
       </c>
@@ -2338,36 +2353,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E5" s="9" t="str">
-        <f t="array" ref="E5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E5" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F5" s="9" t="str">
+        <f t="array" ref="F5">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B5,C5),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F5" s="9" t="str">
-        <f t="array" ref="F5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="G5" s="9" t="str">
-        <f t="array" ref="G5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G5">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B5,C5),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H5" s="9" t="str">
-        <f t="array" ref="H5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="array" ref="I5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J5" s="9" t="str">
-        <f t="array" ref="J5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K5" s="12" t="str">
-        <f t="array" ref="K5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K5" s="9" t="str">
+        <f t="array" ref="K5">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B5,C5),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L5" s="12" t="str">
+        <f t="array" ref="L5">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B5,C5),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="8">
         <v>6</v>
       </c>
@@ -2378,36 +2397,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E6" s="9" t="str">
-        <f t="array" ref="E6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E6" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F6" s="9" t="str">
+        <f t="array" ref="F6">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B6,C6),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="F6" s="9" t="str">
-        <f t="array" ref="F6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G6" s="9" t="str">
+        <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G6" s="9" t="str">
-        <f t="array" ref="G6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="H6" s="9" t="str">
-        <f t="array" ref="H6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I6" s="9" t="str">
-        <f t="array" ref="I6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J6" s="9" t="str">
-        <f t="array" ref="J6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K6" s="12" t="str">
-        <f t="array" ref="K6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K6" s="9" t="str">
+        <f t="array" ref="K6">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B6,C6),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L6" s="12" t="str">
+        <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>8</v>
       </c>
@@ -2418,36 +2441,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E7" s="9" t="str">
-        <f t="array" ref="E7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E7" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F7" s="9" t="str">
-        <f t="array" ref="F7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F7">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B7,C7),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="array" ref="G7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G7">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B7,C7),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H7" s="9" t="str">
-        <f t="array" ref="H7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I7" s="9" t="str">
-        <f t="array" ref="I7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J7" s="9" t="str">
-        <f t="array" ref="J7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K7" s="12" t="str">
-        <f t="array" ref="K7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K7" s="9" t="str">
+        <f t="array" ref="K7">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B7,C7),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L7" s="12" t="str">
+        <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="8">
         <v>10</v>
       </c>
@@ -2458,36 +2485,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E8" s="9" t="str">
-        <f t="array" ref="E8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E8" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F8" s="9" t="str">
+        <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F8" s="9" t="str">
-        <f t="array" ref="F8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G8" s="9" t="str">
+        <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G8" s="9" t="str">
-        <f t="array" ref="G8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="H8" s="9" t="str">
-        <f t="array" ref="H8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I8" s="9" t="str">
-        <f t="array" ref="I8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J8" s="9" t="str">
+        <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J8" s="9" t="str">
-        <f t="array" ref="J8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K8" s="12" t="str">
-        <f t="array" ref="K8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="9" t="str">
+        <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L8" s="12" t="str">
+        <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="8">
         <v>12</v>
       </c>
@@ -2498,36 +2529,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E9" s="9" t="str">
-        <f t="array" ref="E9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E9" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F9" s="9" t="str">
+        <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F9" s="9" t="str">
-        <f t="array" ref="F9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="G9" s="9" t="str">
-        <f t="array" ref="G9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H9" s="9" t="str">
-        <f t="array" ref="H9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I9" s="9" t="str">
-        <f t="array" ref="I9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J9" s="9" t="str">
-        <f t="array" ref="J9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K9" s="12" t="str">
-        <f t="array" ref="K9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L9" s="12" t="str">
+        <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="8">
         <v>14</v>
       </c>
@@ -2538,36 +2573,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E10" s="9" t="str">
-        <f t="array" ref="E10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E10" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F10" s="9" t="str">
+        <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F10" s="9" t="str">
-        <f t="array" ref="F10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="G10" s="9" t="str">
-        <f t="array" ref="G10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H10" s="9" t="str">
-        <f t="array" ref="H10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I10" s="9" t="str">
-        <f t="array" ref="I10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J10" s="9" t="str">
-        <f t="array" ref="J10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K10" s="12" t="str">
-        <f t="array" ref="K10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+        <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="array" ref="K10">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B10,C10),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f t="array" ref="L10">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B10,C10),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="8">
         <v>16</v>
       </c>
@@ -2578,36 +2617,40 @@
         <f t="shared" si="0"/>
         <v>D</v>
       </c>
-      <c r="E11" s="9" t="str">
-        <f t="array" ref="E11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E11" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F11" s="9" t="str">
-        <f t="array" ref="F11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F11">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B11,C11),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="array" ref="G11">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B11,C11),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="G11" s="9" t="str">
-        <f t="array" ref="G11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="H11" s="9" t="str">
-        <f t="array" ref="H11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I11" s="9" t="str">
-        <f t="array" ref="I11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="J11" s="9" t="str">
-        <f t="array" ref="J11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="array" ref="K11">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B11,C11),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
         <v>D</v>
       </c>
-      <c r="K11" s="12" t="str">
-        <f t="array" ref="K11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L11" s="12" t="str">
+        <f t="array" ref="L11">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B11,C11),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="8">
         <v>18</v>
       </c>
@@ -2618,36 +2661,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E12" s="9" t="str">
-        <f t="array" ref="E12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E12" s="23" t="str">
+        <f t="shared" si="1"/>
+        <v>-I</v>
+      </c>
+      <c r="F12" s="9" t="str">
+        <f t="array" ref="F12">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B12,C12),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="F12" s="9" t="str">
-        <f t="array" ref="F12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+      <c r="G12" s="9" t="str">
+        <f t="array" ref="G12">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B12,C12),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="G12" s="9" t="str">
-        <f t="array" ref="G12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
       <c r="H12" s="9" t="str">
-        <f t="array" ref="H12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I12" s="9" t="str">
-        <f t="array" ref="I12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J12" s="9" t="str">
+        <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J12" s="9" t="str">
-        <f t="array" ref="J12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K12" s="12" t="str">
-        <f t="array" ref="K12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="9" t="str">
+        <f t="array" ref="K12">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B12,C12),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L12" s="12" t="str">
+        <f t="array" ref="L12">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B12,C12),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="8">
         <v>20</v>
       </c>
@@ -2658,36 +2705,40 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E13" s="9" t="str">
-        <f t="array" ref="E13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E13" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F13" s="9" t="str">
-        <f t="array" ref="F13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F13">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B13,C13),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f t="array" ref="G13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G13">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B13,C13),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H13" s="9" t="str">
-        <f t="array" ref="H13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I13" s="9" t="str">
-        <f t="array" ref="I13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J13" s="9" t="str">
+        <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J13" s="9" t="str">
-        <f t="array" ref="J13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K13" s="12" t="str">
-        <f t="array" ref="K13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="9" t="str">
+        <f t="array" ref="K13">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B13,C13),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L13" s="12" t="str">
+        <f t="array" ref="L13">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B13,C13),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="8">
         <v>22</v>
       </c>
@@ -2698,58 +2749,64 @@
         <f t="shared" si="0"/>
         <v>-I</v>
       </c>
-      <c r="E14" s="9" t="str">
-        <f t="array" ref="E14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
+      <c r="E14" s="23" t="str">
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="F14" s="9" t="str">
-        <f t="array" ref="F14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
+        <f t="array" ref="F14">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B14,C14),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f t="array" ref="G14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
+        <f t="array" ref="G14">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B14,C14),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="H14" s="9" t="str">
-        <f t="array" ref="H14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
         <v>-I</v>
       </c>
       <c r="I14" s="9" t="str">
-        <f t="array" ref="I14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
+        <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="J14" s="9" t="str">
+        <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
         <v>+III</v>
       </c>
-      <c r="J14" s="9" t="str">
-        <f t="array" ref="J14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-      <c r="K14" s="12" t="str">
-        <f t="array" ref="K14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="9" t="str">
+        <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+      <c r="L14" s="12" t="str">
+        <f t="array" ref="L14">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B14,C14),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
+        <v>-I</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
       <c r="D15" s="23"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
-      <c r="K15" s="12"/>
-    </row>
-    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="9"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
       <c r="D16" s="24"/>
-      <c r="E16" s="14"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="17"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="17"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
@@ -2852,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6761D57C-5327-4E9A-849C-EF243BA7CB5C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61869062-937F-4132-B448-3AFF2607D334}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2208,7 +2208,7 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2909,14 +2909,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2935,7 +2935,9 @@
       <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
       <c r="D3" s="52" t="s">
         <v>38</v>
       </c>
@@ -3144,7 +3146,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" ref="H12:H13" si="6">G12*3.66</f>
+        <f t="shared" ref="H12" si="6">G12*3.66</f>
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3460,8 +3462,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="26">
-        <f t="shared" si="6"/>
-        <v>3.66</v>
+        <v>1</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>20</v>
@@ -4521,7 +4522,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5298,8 +5299,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" si="9"/>
-        <v>2.3199999999999998</v>
+        <v>1</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>20</v>
@@ -5375,8 +5375,7 @@
         <v>0.5</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="9"/>
-        <v>1.1599999999999999</v>
+        <v>1</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>20</v>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61869062-937F-4132-B448-3AFF2607D334}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55E4D2-3BF5-4AD4-A29A-F6628B5D7055}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="1" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2208,8 +2208,8 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2262,12 +2262,12 @@
         <v>2</v>
       </c>
       <c r="D3" s="22" t="str">
-        <f t="shared" ref="D3:D14" si="0">IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND"))))))))</f>
-        <v>-I</v>
+        <f>IF(COUNTIF(F3:L3,"D")&gt;0,"D",IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR")))))))))</f>
+        <v>+III</v>
       </c>
       <c r="E3" s="22" t="str">
-        <f t="shared" ref="E3:E14" si="1">IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III","ND")))))))</f>
-        <v>-I</v>
+        <f>IF(COUNTIF(F3:L3,"-III")&gt;0,"-III",IF(COUNTIF(F3:L3,"-II")&gt;0,"-II",IF(COUNTIF(F3:L3,"-I")&gt;0,"-I",IF(COUNTIF(F3:L3,"+0")&gt;0,"+0",IF(COUNTIF(F3:L3,"+I")&gt;0,"+I",IF(COUNTIF(F3:L3,"+II")&gt;0,"+II",IF(COUNTIF(F3:L3,"+III")&gt;0,"+III",IF(COUNTIF(F3:L3,"ND")&gt;0,"ND","NR"))))))))</f>
+        <v>+III</v>
       </c>
       <c r="F3" s="4" t="str">
         <f t="array" ref="F3">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B3,C3),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
@@ -2279,11 +2279,11 @@
       </c>
       <c r="H3" s="4" t="str">
         <f t="array" ref="H3">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B3,C3),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I3" s="4" t="str">
         <f t="array" ref="I3">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B3,C3),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J3" s="4" t="str">
         <f t="array" ref="J3">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B3,C3),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="K3" s="4" t="str">
         <f t="array" ref="K3">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B3,C3),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="L3" s="7" t="str">
         <f t="array" ref="L3">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B3,C3),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2306,11 +2306,11 @@
         <v>4</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D14" si="0">IF(COUNTIF(F4:L4,"D")&gt;0,"D",IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>-I</v>
       </c>
       <c r="E4" s="23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E4:E14" si="1">IF(COUNTIF(F4:L4,"-III")&gt;0,"-III",IF(COUNTIF(F4:L4,"-II")&gt;0,"-II",IF(COUNTIF(F4:L4,"-I")&gt;0,"-I",IF(COUNTIF(F4:L4,"+0")&gt;0,"+0",IF(COUNTIF(F4:L4,"+I")&gt;0,"+I",IF(COUNTIF(F4:L4,"+II")&gt;0,"+II",IF(COUNTIF(F4:L4,"+III")&gt;0,"+III",IF(COUNTIF(F4:L4,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>-I</v>
       </c>
       <c r="F4" s="9" t="str">
@@ -2323,11 +2323,11 @@
       </c>
       <c r="H4" s="9" t="str">
         <f t="array" ref="H4">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B4,C4),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I4" s="9" t="str">
         <f t="array" ref="I4">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B4,C4),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J4" s="9" t="str">
         <f t="array" ref="J4">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B4,C4),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2367,11 +2367,11 @@
       </c>
       <c r="H5" s="9" t="str">
         <f t="array" ref="H5">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B5,C5),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I5" s="9" t="str">
         <f t="array" ref="I5">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B5,C5),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J5" s="9" t="str">
         <f t="array" ref="J5">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B5,C5),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2407,15 +2407,15 @@
       </c>
       <c r="G6" s="9" t="str">
         <f t="array" ref="G6">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B6,C6),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H6" s="9" t="str">
         <f t="array" ref="H6">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B6,C6),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I6" s="9" t="str">
         <f t="array" ref="I6">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B6,C6),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J6" s="9" t="str">
         <f t="array" ref="J6">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B6,C6),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2427,7 +2427,7 @@
       </c>
       <c r="L6" s="12" t="str">
         <f t="array" ref="L6">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B6,C6),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
@@ -2455,11 +2455,11 @@
       </c>
       <c r="H7" s="9" t="str">
         <f t="array" ref="H7">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B7,C7),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I7" s="9" t="str">
         <f t="array" ref="I7">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B7,C7),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J7" s="9" t="str">
         <f t="array" ref="J7">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B7,C7),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="L7" s="12" t="str">
         <f t="array" ref="L7">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B7,C7),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
@@ -2491,19 +2491,19 @@
       </c>
       <c r="F8" s="9" t="str">
         <f t="array" ref="F8">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B8,C8),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G8" s="9" t="str">
         <f t="array" ref="G8">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B8,C8),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="H8" s="9" t="str">
         <f t="array" ref="H8">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B8,C8),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I8" s="9" t="str">
         <f t="array" ref="I8">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B8,C8),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J8" s="9" t="str">
         <f t="array" ref="J8">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B8,C8),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2511,7 +2511,7 @@
       </c>
       <c r="K8" s="9" t="str">
         <f t="array" ref="K8">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B8,C8),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="L8" s="12" t="str">
         <f t="array" ref="L8">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B8,C8),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2535,7 +2535,7 @@
       </c>
       <c r="F9" s="9" t="str">
         <f t="array" ref="F9">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B9,C9),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G9" s="9" t="str">
         <f t="array" ref="G9">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B9,C9),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2543,11 +2543,11 @@
       </c>
       <c r="H9" s="9" t="str">
         <f t="array" ref="H9">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B9,C9),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I9" s="9" t="str">
         <f t="array" ref="I9">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B9,C9),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J9" s="9" t="str">
         <f t="array" ref="J9">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B9,C9),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K9" s="9" t="str">
         <f t="array" ref="K9">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B9,C9),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="L9" s="12" t="str">
         <f t="array" ref="L9">INDEX(HTKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(HTKW!$D$11:$D$30&gt;AVERAGE(B9,C9),HTKW!$D$11:$D$30)),HTKW!$D$11:$D$30),1))</f>
@@ -2579,7 +2579,7 @@
       </c>
       <c r="F10" s="9" t="str">
         <f t="array" ref="F10">INDEX(STPH!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STPH!$D$11:$D$30&gt;AVERAGE(B10,C10),STPH!$D$11:$D$30)),STPH!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="G10" s="9" t="str">
         <f t="array" ref="G10">INDEX(STBI!$O$11:$O$30,IFERROR(MATCH(MIN(IF(STBI!$D$11:$D$30&gt;AVERAGE(B10,C10),STBI!$D$11:$D$30)),STBI!$D$11:$D$30),1))</f>
@@ -2587,11 +2587,11 @@
       </c>
       <c r="H10" s="9" t="str">
         <f t="array" ref="H10">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B10,C10),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I10" s="9" t="str">
         <f t="array" ref="I10">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B10,C10),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J10" s="9" t="str">
         <f t="array" ref="J10">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B10,C10),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2631,11 +2631,11 @@
       </c>
       <c r="H11" s="9" t="str">
         <f t="array" ref="H11">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B11,C11),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I11" s="9" t="str">
         <f t="array" ref="I11">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B11,C11),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J11" s="9" t="str">
         <f t="array" ref="J11">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B11,C11),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2675,11 +2675,11 @@
       </c>
       <c r="H12" s="9" t="str">
         <f t="array" ref="H12">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B12,C12),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I12" s="9" t="str">
         <f t="array" ref="I12">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B12,C12),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J12" s="9" t="str">
         <f t="array" ref="J12">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B12,C12),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2719,11 +2719,11 @@
       </c>
       <c r="H13" s="9" t="str">
         <f t="array" ref="H13">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B13,C13),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I13" s="9" t="str">
         <f t="array" ref="I13">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B13,C13),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J13" s="9" t="str">
         <f t="array" ref="J13">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B13,C13),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
@@ -2763,15 +2763,15 @@
       </c>
       <c r="H14" s="9" t="str">
         <f t="array" ref="H14">INDEX(GEKB!$K$11:$K$30,IFERROR(MATCH(MIN(IF(GEKB!$D$11:$D$30&gt;AVERAGE(B14,C14),GEKB!$D$11:$D$30)),GEKB!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="I14" s="9" t="str">
         <f t="array" ref="I14">INDEX(DA!$K$11:$K$30,IFERROR(MATCH(MIN(IF(DA!$D$11:$D$30&gt;AVERAGE(B14,C14),DA!$D$11:$D$30)),DA!$D$11:$D$30),1))</f>
-        <v>-I</v>
+        <v>NR</v>
       </c>
       <c r="J14" s="9" t="str">
         <f t="array" ref="J14">INDEX(STKWp!$K$11:$K$30,IFERROR(MATCH(MIN(IF(STKWp!$D$11:$D$30&gt;AVERAGE(B14,C14),STKWp!$D$11:$D$30)),STKWp!$D$11:$D$30),1))</f>
-        <v>+III</v>
+        <v>NR</v>
       </c>
       <c r="K14" s="9" t="str">
         <f t="array" ref="K14">INDEX(BSKW!$K$11:$K$30,IFERROR(MATCH(MIN(IF(BSKW!$D$11:$D$30&gt;AVERAGE(B14,C14),BSKW!$D$11:$D$30)),BSKW!$D$11:$D$30),1))</f>
@@ -2909,7 +2909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CBD9B7-2F4E-4E0F-B0DE-0C76068107FF}">
   <dimension ref="A2:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -3146,7 +3146,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3329,11 +3329,11 @@
         <v>-</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O22" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>ND</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -3341,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -3385,7 +3385,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" ref="H12" si="6">G12*3.66</f>
+        <f t="shared" ref="H12" si="5">G12*3.66</f>
         <v>0</v>
       </c>
       <c r="I12" s="8" t="s">
@@ -3406,11 +3406,11 @@
         <v>1</v>
       </c>
       <c r="O12" s="32" t="str">
+        <f t="shared" ref="O11:O22" si="6">IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q12" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R12" s="10">
@@ -3418,7 +3418,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T12" s="10">
@@ -3486,11 +3486,11 @@
         <v>1</v>
       </c>
       <c r="O13" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>+III</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q13" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R13" s="10">
@@ -3498,7 +3498,7 @@
         <v>1</v>
       </c>
       <c r="S13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T13" s="10">
@@ -3563,11 +3563,11 @@
         <v>-</v>
       </c>
       <c r="O14" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>D</v>
+      </c>
+      <c r="Q14" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q14" s="31" t="e">
-        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="R14" s="10">
@@ -3575,7 +3575,7 @@
         <v>1</v>
       </c>
       <c r="S14" s="10" t="e">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="T14" s="10">
@@ -3643,11 +3643,11 @@
         <v>3.6599999999999997</v>
       </c>
       <c r="O15" s="32" t="str">
+        <f t="shared" si="6"/>
+        <v>-I</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q15" s="31">
-        <f t="shared" si="4"/>
         <v>0.99998169999999997</v>
       </c>
       <c r="R15" s="10">
@@ -3655,7 +3655,7 @@
         <v>0.99998169999999997</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.4450000000000002E-4</v>
       </c>
       <c r="T15" s="10">
@@ -3715,11 +3715,11 @@
         <v>1</v>
       </c>
       <c r="O16" s="32" t="str">
+        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q16" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R16" s="10">
@@ -3727,7 +3727,7 @@
         <v>1</v>
       </c>
       <c r="S16" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
@@ -3787,11 +3787,11 @@
         <v>1</v>
       </c>
       <c r="O17" s="32" t="str">
+        <f t="shared" ref="O17:O22" si="10">IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q17" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R17" s="10">
@@ -3799,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="S17" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T17" s="10">
@@ -3859,11 +3859,11 @@
         <v>1</v>
       </c>
       <c r="O18" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>NR</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q18" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R18" s="10">
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
       <c r="S18" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T18" s="10">
@@ -3915,7 +3915,7 @@
         <v>7.27E-4</v>
       </c>
       <c r="H19" s="26">
-        <f t="shared" ref="H19:H22" si="10">G19*3.66</f>
+        <f t="shared" ref="H19:H22" si="11">G19*3.66</f>
         <v>2.6608199999999999E-3</v>
       </c>
       <c r="I19" s="8" t="s">
@@ -3936,11 +3936,11 @@
         <v>3.66</v>
       </c>
       <c r="O19" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>-I</v>
+      </c>
+      <c r="Q19" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q19" s="31">
-        <f t="shared" si="4"/>
         <v>0.99733917999999999</v>
       </c>
       <c r="R19" s="10">
@@ -3948,7 +3948,7 @@
         <v>0.99733917999999999</v>
       </c>
       <c r="S19" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.1010299999999999E-2</v>
       </c>
       <c r="T19" s="10">
@@ -3992,7 +3992,7 @@
         <v>7.2800000000000002E-4</v>
       </c>
       <c r="H20" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6644800000000003E-3</v>
       </c>
       <c r="I20" s="8" t="s">
@@ -4017,11 +4017,11 @@
         <v>1</v>
       </c>
       <c r="O20" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R20" s="10">
@@ -4029,7 +4029,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20" s="10">
@@ -4073,7 +4073,7 @@
         <v>1E-10</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6600000000000003E-10</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -4094,11 +4094,11 @@
         <v>3.66</v>
       </c>
       <c r="O21" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>-I</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q21" s="31">
-        <f t="shared" si="4"/>
         <v>0.99999999963399999</v>
       </c>
       <c r="R21" s="10">
@@ -4106,7 +4106,7 @@
         <v>0.99999999963399999</v>
       </c>
       <c r="S21" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8900000000000002E-9</v>
       </c>
       <c r="T21" s="10">
@@ -4150,7 +4150,7 @@
         <v>1E-4</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.6600000000000001E-4</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -4171,11 +4171,11 @@
         <v>3.6599999999999997</v>
       </c>
       <c r="O22" s="32" t="str">
+        <f t="shared" si="10"/>
+        <v>-I</v>
+      </c>
+      <c r="Q22" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q22" s="31">
-        <f t="shared" si="4"/>
         <v>0.99963400000000002</v>
       </c>
       <c r="R22" s="10">
@@ -4183,7 +4183,7 @@
         <v>0.99963400000000002</v>
       </c>
       <c r="S22" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.8900000000000002E-3</v>
       </c>
       <c r="T22" s="10">
@@ -4504,7 +4504,7 @@
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E7586F0-4A97-4FE3-A954-2F42494980C3}">
           <x14:formula1>
             <xm:f>Informatiepagina!$B$15:$B$17</xm:f>
@@ -4522,7 +4522,7 @@
   <dimension ref="B2:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4709,11 +4709,11 @@
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f t="shared" ref="O11:O22" si="3">IF(ISNUMBER($M11),W11,IF($X11,"D","ND"))</f>
+        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -4785,23 +4785,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O12" s="32" t="str">
+        <f>IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q12" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q12" s="31">
+        <v>0.99945015999999998</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" ref="R12:R22" si="5">IF(M12="-",1,Q12)</f>
+        <v>0.99945015999999998</v>
+      </c>
+      <c r="S12" s="10">
         <f t="shared" si="4"/>
-        <v>0.99945015999999998</v>
-      </c>
-      <c r="R12" s="10">
-        <f t="shared" ref="R12:R22" si="6">IF(M12="-",1,Q12)</f>
-        <v>0.99945015999999998</v>
-      </c>
-      <c r="S12" s="10">
-        <f t="shared" si="5"/>
         <v>3.5076E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T22" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T22" si="6">IF(L12="-",0,S12)</f>
         <v>3.5076E-3</v>
       </c>
       <c r="U12" s="9">
@@ -4817,7 +4817,7 @@
         <v>-I</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X22" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4861,23 +4861,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O13" s="32" t="str">
+        <f>IF(E13="Nee","NR",IF(ISNUMBER($M13),W13,IF($X13,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q13" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q13" s="31">
+        <v>1</v>
+      </c>
+      <c r="R13" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R13" s="10">
+        <v>1.48E-49</v>
+      </c>
+      <c r="T13" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="5"/>
-        <v>1.48E-49</v>
-      </c>
-      <c r="T13" s="10">
-        <f t="shared" si="7"/>
         <v>1.48E-49</v>
       </c>
       <c r="U13" s="9">
@@ -4893,7 +4893,7 @@
         <v>-I</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4933,23 +4933,23 @@
         <v>1</v>
       </c>
       <c r="O14" s="32" t="str">
+        <f>IF(E14="Nee","NR",IF(ISNUMBER($M14),W14,IF($X14,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q14" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q14" s="31">
+        <v>1</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
+        <v>0</v>
+      </c>
+      <c r="T14" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -4965,7 +4965,7 @@
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,23 +5009,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O15" s="32" t="str">
+        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q15" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q15" s="31">
+        <v>0.99944895359999997</v>
+      </c>
+      <c r="R15" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99944895359999997</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="4"/>
-        <v>0.99944895359999997</v>
-      </c>
-      <c r="R15" s="10">
+        <v>3.5152960000000002E-3</v>
+      </c>
+      <c r="T15" s="10">
         <f t="shared" si="6"/>
-        <v>0.99944895359999997</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="5"/>
-        <v>3.5152960000000002E-3</v>
-      </c>
-      <c r="T15" s="10">
-        <f t="shared" si="7"/>
         <v>3.5152960000000002E-3</v>
       </c>
       <c r="U15" s="9">
@@ -5041,7 +5041,7 @@
         <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5081,23 +5081,23 @@
         <v>1</v>
       </c>
       <c r="O16" s="32" t="str">
+        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="Q16" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q16" s="31">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -5113,7 +5113,7 @@
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5162,23 +5162,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O17" s="32" t="str">
+        <f>IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q17" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q17" s="31">
+        <v>0.9999768</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="5"/>
+        <v>0.9999768</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="4"/>
-        <v>0.9999768</v>
-      </c>
-      <c r="R17" s="10">
+        <v>1.4800000000000002E-4</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="6"/>
-        <v>0.9999768</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="5"/>
-        <v>1.4800000000000002E-4</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="7"/>
         <v>1.4800000000000002E-4</v>
       </c>
       <c r="U17" s="9">
@@ -5194,7 +5194,7 @@
         <v>-I</v>
       </c>
       <c r="X17" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
         <v>2.3800000000000001E-4</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" ref="H18:H22" si="9">G18*2.32</f>
+        <f t="shared" ref="H18:H22" si="8">G18*2.32</f>
         <v>5.5216E-4</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5243,23 +5243,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O18" s="32" t="str">
+        <f>IF(E18="Nee","NR",IF(ISNUMBER($M18),W18,IF($X18,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q18" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q18" s="31">
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999999976800003</v>
-      </c>
-      <c r="R18" s="10">
+        <v>1.4800000000000001E-9</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999999976800003</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="5"/>
-        <v>1.4800000000000001E-9</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="7"/>
         <v>1.4800000000000001E-9</v>
       </c>
       <c r="U18" s="9">
@@ -5275,7 +5275,7 @@
         <v>-I</v>
       </c>
       <c r="X18" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5319,23 +5319,23 @@
         <v>-</v>
       </c>
       <c r="O19" s="32" t="str">
+        <f>IF(E19="Nee","NR",IF(ISNUMBER($M19),W19,IF($X19,"D","ND")))</f>
+        <v>D</v>
+      </c>
+      <c r="Q19" s="31" t="e">
         <f t="shared" si="3"/>
-        <v>D</v>
-      </c>
-      <c r="Q19" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="R19" s="10">
+      <c r="T19" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -5351,7 +5351,7 @@
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -5387,11 +5387,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:L22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="L20:L22" si="9">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>0</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20:M22" si="11">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
+        <f t="shared" ref="M20:M22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
@@ -5399,23 +5399,23 @@
         <v>1</v>
       </c>
       <c r="O20" s="32" t="str">
+        <f>IF(E20="Nee","NR",IF(ISNUMBER($M20),W20,IF($X20,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="Q20" s="31">
         <f t="shared" si="3"/>
-        <v>+III</v>
-      </c>
-      <c r="Q20" s="31">
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
@@ -5431,7 +5431,7 @@
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.23199999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -5468,11 +5468,11 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L21" s="31">
+        <f t="shared" si="9"/>
+        <v>1E-8</v>
+      </c>
+      <c r="M21" s="10">
         <f t="shared" si="10"/>
-        <v>1E-8</v>
-      </c>
-      <c r="M21" s="10">
-        <f t="shared" si="11"/>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N21" s="11">
@@ -5480,23 +5480,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O21" s="32" t="str">
+        <f>IF(E21="Nee","NR",IF(ISNUMBER($M21),W21,IF($X21,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q21" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q21" s="31">
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="R21" s="10">
+        <v>1.48E-7</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="5"/>
-        <v>1.48E-7</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="7"/>
         <v>1.48E-7</v>
       </c>
       <c r="U21" s="9">
@@ -5512,7 +5512,7 @@
         <v>-I</v>
       </c>
       <c r="X21" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.22968</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -5549,11 +5549,11 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L22" s="31">
+        <f t="shared" si="9"/>
+        <v>1E-8</v>
+      </c>
+      <c r="M22" s="10">
         <f t="shared" si="10"/>
-        <v>1E-8</v>
-      </c>
-      <c r="M22" s="10">
-        <f t="shared" si="11"/>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N22" s="11">
@@ -5561,23 +5561,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O22" s="32" t="str">
+        <f>IF(E22="Nee","NR",IF(ISNUMBER($M22),W22,IF($X22,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="Q22" s="31">
         <f t="shared" si="3"/>
-        <v>-I</v>
-      </c>
-      <c r="Q22" s="31">
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="5"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="4"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="R22" s="10">
+        <v>1.48E-7</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="6"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="5"/>
-        <v>1.48E-7</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="7"/>
         <v>1.48E-7</v>
       </c>
       <c r="U22" s="9">
@@ -5593,7 +5593,7 @@
         <v>-I</v>
       </c>
       <c r="X22" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -5912,7 +5912,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6069,19 +6069,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11" si="0">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>-I</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11" si="0">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11" si="1">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7428,7 +7428,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7585,8 +7585,8 @@
         <v>0</v>
       </c>
       <c r="K11" s="47" t="str">
-        <f>IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>-I</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="33">
         <f>IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
@@ -7750,7 +7750,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7907,19 +7907,19 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7973,23 +7973,23 @@
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
+        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
         <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -8005,7 +8005,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8039,23 +8039,23 @@
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="7">IF(J13="-",1,M13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O22" si="10">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="Q13" s="9">
@@ -8071,7 +8071,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8103,23 +8103,23 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M14" s="31">
+        <v>0.99999499999999997</v>
+      </c>
+      <c r="O14" s="10">
         <f t="shared" si="8"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="9"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="O14" s="10">
-        <f t="shared" si="10"/>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="9">IF(J14="-",0,O14)</f>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q14" s="9">
@@ -8135,7 +8135,7 @@
         <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8169,23 +8169,23 @@
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" si="6"/>
+        <v>0.999999992</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M15" s="31">
+        <v>0.999999992</v>
+      </c>
+      <c r="O15" s="10">
         <f t="shared" si="8"/>
-        <v>0.999999992</v>
-      </c>
-      <c r="N15" s="10">
+        <v>2.4000000000000003E-8</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="9"/>
-        <v>0.999999992</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="10"/>
-        <v>2.4000000000000003E-8</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>2.4000000000000003E-8</v>
       </c>
       <c r="Q15" s="9">
@@ -8201,7 +8201,7 @@
         <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8235,23 +8235,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -8267,7 +8267,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8301,23 +8301,23 @@
         <v>2.546E-5</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99997453999999997</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M17" s="31">
+        <v>0.99997453999999997</v>
+      </c>
+      <c r="O17" s="10">
         <f t="shared" si="8"/>
-        <v>0.99997453999999997</v>
-      </c>
-      <c r="N17" s="10">
+        <v>7.6379999999999997E-5</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99997453999999997</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="10"/>
-        <v>7.6379999999999997E-5</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>7.6379999999999997E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -8333,7 +8333,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8365,23 +8365,23 @@
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99933399999999994</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99933399999999994</v>
+      </c>
+      <c r="O18" s="10">
         <f t="shared" si="8"/>
-        <v>0.99933399999999994</v>
-      </c>
-      <c r="N18" s="10">
+        <v>1.9980000000000002E-3</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99933399999999994</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="10"/>
-        <v>1.9980000000000002E-3</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>1.9980000000000002E-3</v>
       </c>
       <c r="Q18" s="9">
@@ -8397,7 +8397,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8431,23 +8431,23 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M19" s="31">
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="O19" s="10">
         <f t="shared" si="8"/>
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="N19" s="10">
+        <v>3.8999999999999998E-3</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="9"/>
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="10"/>
-        <v>3.8999999999999998E-3</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -8463,7 +8463,7 @@
         <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8495,23 +8495,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M20" s="31">
+        <v>1</v>
+      </c>
+      <c r="O20" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -8527,7 +8527,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8561,23 +8561,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M21" s="31">
+        <v>1</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -8593,7 +8593,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8623,23 +8623,23 @@
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M22" s="31">
+        <v>1</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -8655,7 +8655,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -8902,7 +8902,7 @@
   <dimension ref="B2:U30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K11" sqref="K11:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9059,19 +9059,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K22" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
-        <v>-I</v>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M22" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M22" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N22" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N22" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O22" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O22" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -9121,23 +9121,23 @@
         <v>-</v>
       </c>
       <c r="K12" s="32" t="str">
+        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <v>ND</v>
+      </c>
+      <c r="M12" s="31">
         <f t="shared" si="1"/>
-        <v>ND</v>
-      </c>
-      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
+      <c r="O12" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P22" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P22" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -9153,7 +9153,7 @@
         <v>+0</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9187,23 +9187,23 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
+        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M13" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M13" s="31">
+        <v>1</v>
+      </c>
+      <c r="N13" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N13" s="10">
+      <c r="O13" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -9219,7 +9219,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9251,23 +9251,23 @@
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M14" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M14" s="31">
+        <v>0.99977199999999999</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="2"/>
         <v>0.99977199999999999</v>
       </c>
-      <c r="N14" s="10">
+      <c r="O14" s="10">
         <f t="shared" si="3"/>
-        <v>0.99977199999999999</v>
-      </c>
-      <c r="O14" s="10">
+        <v>2.2800000000000001E-4</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="4"/>
-        <v>2.2800000000000001E-4</v>
-      </c>
-      <c r="P14" s="10">
-        <f t="shared" si="5"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
@@ -9283,7 +9283,7 @@
         <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9317,23 +9317,23 @@
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M15" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M15" s="31">
+        <v>0.99673</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="2"/>
         <v>0.99673</v>
       </c>
-      <c r="N15" s="10">
+      <c r="O15" s="10">
         <f t="shared" si="3"/>
-        <v>0.99673</v>
-      </c>
-      <c r="O15" s="10">
+        <v>3.2699999999999999E-3</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="4"/>
-        <v>3.2699999999999999E-3</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="5"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
@@ -9349,7 +9349,7 @@
         <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9379,23 +9379,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M16" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N16" s="10">
+      <c r="O16" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
+        <v>0</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9411,7 +9411,7 @@
         <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9441,23 +9441,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M17" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M17" s="31">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N17" s="10">
+      <c r="O17" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -9473,7 +9473,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9505,23 +9505,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M18" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M18" s="31">
+        <v>1</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O18" s="10">
+        <v>0</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -9537,7 +9537,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9569,23 +9569,23 @@
         <v>-</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <v>D</v>
+      </c>
+      <c r="M19" s="31" t="e">
         <f t="shared" si="1"/>
-        <v>D</v>
-      </c>
-      <c r="M19" s="31" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O19" s="10" t="e">
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N19" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="O19" s="10" t="e">
+      <c r="P19" s="10">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -9601,7 +9601,7 @@
         <v>+0</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -9629,27 +9629,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J22" si="7">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J22" si="6">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M20" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M20" s="31">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="2"/>
         <v>0.99999800000000005</v>
       </c>
-      <c r="N20" s="10">
+      <c r="O20" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="O20" s="10">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="4"/>
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="5"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -9665,7 +9665,7 @@
         <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9695,27 +9695,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M21" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M21" s="31">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="2"/>
         <v>0.99950000000000006</v>
       </c>
-      <c r="N21" s="10">
+      <c r="O21" s="10">
         <f t="shared" si="3"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="O21" s="10">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="4"/>
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="5"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
@@ -9731,7 +9731,7 @@
         <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9759,27 +9759,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M22" s="31">
         <f t="shared" si="1"/>
-        <v>-I</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.99999999799999995</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="2"/>
         <v>0.99999999799999995</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="3"/>
-        <v>0.99999999799999995</v>
-      </c>
-      <c r="O22" s="10">
+        <v>2.0000000000000001E-9</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="4"/>
-        <v>2.0000000000000001E-9</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="5"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="Q22" s="9">
@@ -9795,7 +9795,7 @@
         <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10042,7 +10042,7 @@
   <dimension ref="B2:U29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10199,15 +10199,15 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f t="shared" ref="K11:K12" si="1">IF(ISNUMBER($J11),S11,IF($T11,"D","ND"))</f>
+        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31" t="e">
-        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10" t="e">
@@ -10263,23 +10263,23 @@
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
+        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <v>+III</v>
+      </c>
+      <c r="M12" s="31">
         <f t="shared" si="1"/>
-        <v>+III</v>
-      </c>
-      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="N12" s="10">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O13" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O13" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -10295,7 +10295,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -10327,23 +10327,23 @@
         <v>2.4E-2</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f t="shared" ref="K13:K22" si="7">IF(ISNUMBER($J13),S13,IF($T13,"D","ND"))</f>
+        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="9">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="7">IF(J13="-",1,M13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="O13" s="10">
+        <f t="shared" si="3"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P13" s="10">
         <f t="shared" si="4"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="P13" s="10">
-        <f t="shared" si="5"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q13" s="9">
@@ -10359,7 +10359,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10389,23 +10389,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
+        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M14" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M14" s="31">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O22" si="10">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O22" si="8">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="11">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="9">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -10421,7 +10421,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10451,23 +10451,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
+        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <v>NR</v>
+      </c>
+      <c r="M15" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
         <f t="shared" si="7"/>
-        <v>+III</v>
-      </c>
-      <c r="M15" s="31">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="10">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="10">
-        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -10483,7 +10483,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10517,23 +10517,23 @@
         <v>5.9999999999999995E-25</v>
       </c>
       <c r="K16" s="32" t="str">
+        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M16" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M16" s="31">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="N16" s="10">
+        <v>1.1999999999999999E-24</v>
+      </c>
+      <c r="P16" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="O16" s="10">
-        <f t="shared" si="10"/>
-        <v>1.1999999999999999E-24</v>
-      </c>
-      <c r="P16" s="10">
-        <f t="shared" si="11"/>
         <v>1.1999999999999999E-24</v>
       </c>
       <c r="Q16" s="9">
@@ -10549,7 +10549,7 @@
         <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10583,23 +10583,23 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="K17" s="32" t="str">
+        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999300000000002</v>
+      </c>
+      <c r="N17" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M17" s="31">
+        <v>0.99999300000000002</v>
+      </c>
+      <c r="O17" s="10">
         <f t="shared" si="8"/>
-        <v>0.99999300000000002</v>
-      </c>
-      <c r="N17" s="10">
+        <v>1.4E-5</v>
+      </c>
+      <c r="P17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999300000000002</v>
-      </c>
-      <c r="O17" s="10">
-        <f t="shared" si="10"/>
-        <v>1.4E-5</v>
-      </c>
-      <c r="P17" s="10">
-        <f t="shared" si="11"/>
         <v>1.4E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -10615,7 +10615,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10649,23 +10649,23 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K18" s="32" t="str">
+        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="N18" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M18" s="31">
+        <v>0.99999800000000005</v>
+      </c>
+      <c r="O18" s="10">
         <f t="shared" si="8"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="N18" s="10">
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="P18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="O18" s="10">
-        <f t="shared" si="10"/>
-        <v>3.9999999999999998E-6</v>
-      </c>
-      <c r="P18" s="10">
-        <f t="shared" si="11"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="Q18" s="9">
@@ -10681,7 +10681,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10715,23 +10715,23 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="32" t="str">
+        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="N19" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M19" s="31">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="O19" s="10">
         <f t="shared" si="8"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="N19" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="P19" s="10">
         <f t="shared" si="9"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="O19" s="10">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
-      </c>
-      <c r="P19" s="10">
-        <f t="shared" si="11"/>
         <v>1E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -10747,7 +10747,7 @@
         <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10779,23 +10779,23 @@
         <v>2.9999999999999998E-15</v>
       </c>
       <c r="K20" s="32" t="str">
+        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" si="6"/>
+        <v>0.999999999999997</v>
+      </c>
+      <c r="N20" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M20" s="31">
+        <v>0.999999999999997</v>
+      </c>
+      <c r="O20" s="10">
         <f t="shared" si="8"/>
-        <v>0.999999999999997</v>
-      </c>
-      <c r="N20" s="10">
+        <v>5.9999999999999997E-15</v>
+      </c>
+      <c r="P20" s="10">
         <f t="shared" si="9"/>
-        <v>0.999999999999997</v>
-      </c>
-      <c r="O20" s="10">
-        <f t="shared" si="10"/>
-        <v>5.9999999999999997E-15</v>
-      </c>
-      <c r="P20" s="10">
-        <f t="shared" si="11"/>
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="Q20" s="9">
@@ -10811,7 +10811,7 @@
         <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10843,23 +10843,23 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K21" s="32" t="str">
+        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="N21" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M21" s="31">
+        <v>0.99995999999999996</v>
+      </c>
+      <c r="O21" s="10">
         <f t="shared" si="8"/>
-        <v>0.99995999999999996</v>
-      </c>
-      <c r="N21" s="10">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="P21" s="10">
         <f t="shared" si="9"/>
-        <v>0.99995999999999996</v>
-      </c>
-      <c r="O21" s="10">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="P21" s="10">
-        <f t="shared" si="11"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="Q21" s="9">
@@ -10875,7 +10875,7 @@
         <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -10907,23 +10907,23 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K22" s="32" t="str">
+        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <v>-I</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="6"/>
+        <v>0.996</v>
+      </c>
+      <c r="N22" s="10">
         <f t="shared" si="7"/>
-        <v>-I</v>
-      </c>
-      <c r="M22" s="31">
+        <v>0.996</v>
+      </c>
+      <c r="O22" s="10">
         <f t="shared" si="8"/>
-        <v>0.996</v>
-      </c>
-      <c r="N22" s="10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="P22" s="10">
         <f t="shared" si="9"/>
-        <v>0.996</v>
-      </c>
-      <c r="O22" s="10">
-        <f t="shared" si="10"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="P22" s="10">
-        <f t="shared" si="11"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q22" s="9">
@@ -10939,7 +10939,7 @@
         <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>

--- a/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
+++ b/benchmarktests/testdefinitions/Benchmartktest_traject 16-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E55E4D2-3BF5-4AD4-A29A-F6628B5D7055}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F892E6B-BCDE-4A30-B91D-46531AF87B87}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" firstSheet="1" activeTab="8" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2208,7 +2208,7 @@
   </sheetPr>
   <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
@@ -3406,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="32" t="str">
-        <f t="shared" ref="O11:O22" si="6">IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <f t="shared" ref="O12:O15" si="6">IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q12" s="31">
@@ -4709,11 +4709,11 @@
         <v>1</v>
       </c>
       <c r="O11" s="30" t="str">
-        <f>IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
+        <f t="shared" ref="O11:O22" si="3">IF(E11="Nee","NR",IF(ISNUMBER($M11),W11,IF($X11,"D","ND")))</f>
         <v>+III</v>
       </c>
       <c r="Q11" s="31">
-        <f t="shared" ref="Q11:Q22" si="3">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
+        <f t="shared" ref="Q11:Q22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),1,1-M11)</f>
         <v>1</v>
       </c>
       <c r="R11" s="10">
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="10">
-        <f t="shared" ref="S11:S22" si="4">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
+        <f t="shared" ref="S11:S22" si="5">IF(AND(F11="Geen faalkans",I11="Nee"),0,L11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="T11" s="10">
@@ -4785,23 +4785,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O12" s="32" t="str">
-        <f>IF(E12="Nee","NR",IF(ISNUMBER($M12),W12,IF($X12,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99945015999999998</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R22" si="5">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R22" si="6">IF(M12="-",1,Q12)</f>
         <v>0.99945015999999998</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.5076E-3</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T22" si="6">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T22" si="7">IF(L12="-",0,S12)</f>
         <v>3.5076E-3</v>
       </c>
       <c r="U12" s="9">
@@ -4817,7 +4817,7 @@
         <v>-I</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X22" si="7">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X22" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -4861,23 +4861,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O13" s="32" t="str">
-        <f>IF(E13="Nee","NR",IF(ISNUMBER($M13),W13,IF($X13,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R13" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S13" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S13" s="10">
-        <f t="shared" si="4"/>
         <v>1.48E-49</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.48E-49</v>
       </c>
       <c r="U13" s="9">
@@ -4893,7 +4893,7 @@
         <v>-I</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4933,23 +4933,23 @@
         <v>1</v>
       </c>
       <c r="O14" s="32" t="str">
-        <f>IF(E14="Nee","NR",IF(ISNUMBER($M14),W14,IF($X14,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>NR</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R14" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U14" s="9">
@@ -4965,7 +4965,7 @@
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5009,23 +5009,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O15" s="32" t="str">
-        <f>IF(E15="Nee","NR",IF(ISNUMBER($M15),W15,IF($X15,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q15" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99944895359999997</v>
       </c>
       <c r="R15" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99944895359999997</v>
+      </c>
+      <c r="S15" s="10">
         <f t="shared" si="5"/>
-        <v>0.99944895359999997</v>
-      </c>
-      <c r="S15" s="10">
-        <f t="shared" si="4"/>
         <v>3.5152960000000002E-3</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.5152960000000002E-3</v>
       </c>
       <c r="U15" s="9">
@@ -5041,7 +5041,7 @@
         <v>-I</v>
       </c>
       <c r="X15" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5081,23 +5081,23 @@
         <v>1</v>
       </c>
       <c r="O16" s="32" t="str">
-        <f>IF(E16="Nee","NR",IF(ISNUMBER($M16),W16,IF($X16,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>NR</v>
       </c>
       <c r="Q16" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R16" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U16" s="9">
@@ -5113,7 +5113,7 @@
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5162,23 +5162,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O17" s="32" t="str">
-        <f>IF(E17="Nee","NR",IF(ISNUMBER($M17),W17,IF($X17,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q17" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9999768</v>
       </c>
       <c r="R17" s="10">
+        <f t="shared" si="6"/>
+        <v>0.9999768</v>
+      </c>
+      <c r="S17" s="10">
         <f t="shared" si="5"/>
-        <v>0.9999768</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="4"/>
         <v>1.4800000000000002E-4</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4800000000000002E-4</v>
       </c>
       <c r="U17" s="9">
@@ -5194,7 +5194,7 @@
         <v>-I</v>
       </c>
       <c r="X17" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
         <v>2.3800000000000001E-4</v>
       </c>
       <c r="H18" s="26">
-        <f t="shared" ref="H18:H22" si="8">G18*2.32</f>
+        <f t="shared" ref="H18:H22" si="9">G18*2.32</f>
         <v>5.5216E-4</v>
       </c>
       <c r="I18" s="8" t="s">
@@ -5243,23 +5243,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O18" s="32" t="str">
-        <f>IF(E18="Nee","NR",IF(ISNUMBER($M18),W18,IF($X18,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q18" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999999976800003</v>
       </c>
       <c r="R18" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999999976800003</v>
+      </c>
+      <c r="S18" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999999976800003</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="4"/>
         <v>1.4800000000000001E-9</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4800000000000001E-9</v>
       </c>
       <c r="U18" s="9">
@@ -5275,7 +5275,7 @@
         <v>-I</v>
       </c>
       <c r="X18" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5319,23 +5319,23 @@
         <v>-</v>
       </c>
       <c r="O19" s="32" t="str">
-        <f>IF(E19="Nee","NR",IF(ISNUMBER($M19),W19,IF($X19,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>D</v>
       </c>
       <c r="Q19" s="31" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
+      <c r="R19" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
       <c r="T19" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -5351,7 +5351,7 @@
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -5387,11 +5387,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="31">
-        <f t="shared" ref="L20:L22" si="9">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="L20:L22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(J20),J20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>0</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M20:M22" si="10">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
+        <f t="shared" ref="M20:M22" si="11">IF($E20="Nee",0,IF(I20="Ja",IF(ISNUMBER(K20),K20,"-"),IF(ISNUMBER(H20),H20,"-")))</f>
         <v>0</v>
       </c>
       <c r="N20" s="11">
@@ -5399,23 +5399,23 @@
         <v>1</v>
       </c>
       <c r="O20" s="32" t="str">
-        <f>IF(E20="Nee","NR",IF(ISNUMBER($M20),W20,IF($X20,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>+III</v>
       </c>
       <c r="Q20" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="R20" s="10">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
@@ -5431,7 +5431,7 @@
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5455,7 +5455,7 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.23199999999999998</v>
       </c>
       <c r="I21" s="8" t="s">
@@ -5468,11 +5468,11 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L21" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E-8</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N21" s="11">
@@ -5480,23 +5480,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O21" s="32" t="str">
-        <f>IF(E21="Nee","NR",IF(ISNUMBER($M21),W21,IF($X21,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q21" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999997679999997</v>
       </c>
       <c r="R21" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S21" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="4"/>
         <v>1.48E-7</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.48E-7</v>
       </c>
       <c r="U21" s="9">
@@ -5512,7 +5512,7 @@
         <v>-I</v>
       </c>
       <c r="X21" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5536,7 +5536,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="H22" s="26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.22968</v>
       </c>
       <c r="I22" s="8" t="s">
@@ -5549,11 +5549,11 @@
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="L22" s="31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E-8</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3200000000000003E-8</v>
       </c>
       <c r="N22" s="11">
@@ -5561,23 +5561,23 @@
         <v>2.3200000000000003</v>
       </c>
       <c r="O22" s="32" t="str">
-        <f>IF(E22="Nee","NR",IF(ISNUMBER($M22),W22,IF($X22,"D","ND")))</f>
+        <f t="shared" si="3"/>
         <v>-I</v>
       </c>
       <c r="Q22" s="31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99999997679999997</v>
       </c>
       <c r="R22" s="10">
+        <f t="shared" si="6"/>
+        <v>0.99999997679999997</v>
+      </c>
+      <c r="S22" s="10">
         <f t="shared" si="5"/>
-        <v>0.99999997679999997</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="4"/>
         <v>1.48E-7</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.48E-7</v>
       </c>
       <c r="U22" s="9">
@@ -5593,7 +5593,7 @@
         <v>-I</v>
       </c>
       <c r="X22" s="12" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
   <dimension ref="B2:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7568,7 +7568,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="43">
-        <v>20.93</v>
+        <v>24</v>
       </c>
       <c r="E11" s="44" t="s">
         <v>21</v>
@@ -7907,19 +7907,19 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O12" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O12" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -7973,23 +7973,23 @@
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -8005,7 +8005,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8039,23 +8039,23 @@
         <v>5.9999999999999997E-7</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="7">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="8">IF(J13="-",1,M13)</f>
         <v>0.99999939999999998</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" ref="O13:O22" si="8">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
+        <f t="shared" ref="O13:O22" si="9">IF(AND(F13="Geen faalkans",H13="Nee"),0,J13*$C$3)</f>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="Q13" s="9">
@@ -8071,7 +8071,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8103,23 +8103,23 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99999499999999997</v>
-      </c>
-      <c r="N14" s="10">
         <f t="shared" si="7"/>
         <v>0.99999499999999997</v>
       </c>
+      <c r="N14" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99999499999999997</v>
+      </c>
       <c r="O14" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="9">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="10">IF(J14="-",0,O14)</f>
         <v>1.5000000000000002E-5</v>
       </c>
       <c r="Q14" s="9">
@@ -8135,7 +8135,7 @@
         <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8169,23 +8169,23 @@
         <v>8.0000000000000005E-9</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="6"/>
-        <v>0.999999992</v>
-      </c>
-      <c r="N15" s="10">
         <f t="shared" si="7"/>
         <v>0.999999992</v>
       </c>
+      <c r="N15" s="10">
+        <f t="shared" si="8"/>
+        <v>0.999999992</v>
+      </c>
       <c r="O15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.4000000000000003E-8</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4000000000000003E-8</v>
       </c>
       <c r="Q15" s="9">
@@ -8201,7 +8201,7 @@
         <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8235,23 +8235,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -8267,7 +8267,7 @@
         <v>+III</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8301,23 +8301,23 @@
         <v>2.546E-5</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99997453999999997</v>
-      </c>
-      <c r="N17" s="10">
         <f t="shared" si="7"/>
         <v>0.99997453999999997</v>
       </c>
+      <c r="N17" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99997453999999997</v>
+      </c>
       <c r="O17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.6379999999999997E-5</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.6379999999999997E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -8333,7 +8333,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8365,23 +8365,23 @@
         <v>6.6600000000000003E-4</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99933399999999994</v>
-      </c>
-      <c r="N18" s="10">
         <f t="shared" si="7"/>
         <v>0.99933399999999994</v>
       </c>
+      <c r="N18" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99933399999999994</v>
+      </c>
       <c r="O18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9980000000000002E-3</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.9980000000000002E-3</v>
       </c>
       <c r="Q18" s="9">
@@ -8397,7 +8397,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8431,23 +8431,23 @@
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99870000000000003</v>
-      </c>
-      <c r="N19" s="10">
         <f t="shared" si="7"/>
         <v>0.99870000000000003</v>
       </c>
+      <c r="N19" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99870000000000003</v>
+      </c>
       <c r="O19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -8463,7 +8463,7 @@
         <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8495,23 +8495,23 @@
         <v>0</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q20" s="9">
@@ -8527,7 +8527,7 @@
         <v>+III</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8561,23 +8561,23 @@
         <v>0</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q21" s="9">
@@ -8593,7 +8593,7 @@
         <v>+III</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8623,23 +8623,23 @@
         <v>0</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q22" s="9">
@@ -8655,7 +8655,7 @@
         <v>+III</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9059,19 +9059,19 @@
         <v>0</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>NR</v>
       </c>
       <c r="M11" s="31">
-        <f t="shared" ref="M11:M22" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M22" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>1</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N22" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N22" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10">
-        <f t="shared" ref="O11:O22" si="3">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
+        <f t="shared" ref="O11:O22" si="4">IF(AND(F11="Geen faalkans",H11="Nee"),0,J11*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P11" s="10">
@@ -9121,23 +9121,23 @@
         <v>-</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>ND</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P22" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P22" si="5">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -9153,7 +9153,7 @@
         <v>+0</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -9187,23 +9187,23 @@
         <v>0</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q13" s="9">
@@ -9219,7 +9219,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9251,23 +9251,23 @@
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="1"/>
-        <v>0.99977199999999999</v>
-      </c>
-      <c r="N14" s="10">
         <f t="shared" si="2"/>
         <v>0.99977199999999999</v>
       </c>
+      <c r="N14" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99977199999999999</v>
+      </c>
       <c r="O14" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2800000000000001E-4</v>
       </c>
       <c r="Q14" s="9">
@@ -9283,7 +9283,7 @@
         <v>-I</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9317,23 +9317,23 @@
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="1"/>
-        <v>0.99673</v>
-      </c>
-      <c r="N15" s="10">
         <f t="shared" si="2"/>
         <v>0.99673</v>
       </c>
+      <c r="N15" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99673</v>
+      </c>
       <c r="O15" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.2699999999999999E-3</v>
       </c>
       <c r="Q15" s="9">
@@ -9349,7 +9349,7 @@
         <v>-I</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9379,23 +9379,23 @@
         <v>0</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q16" s="9">
@@ -9411,7 +9411,7 @@
         <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9441,23 +9441,23 @@
         <v>0</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q17" s="9">
@@ -9473,7 +9473,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9505,23 +9505,23 @@
         <v>0</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="9">
@@ -9537,7 +9537,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9569,23 +9569,23 @@
         <v>-</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>D</v>
       </c>
       <c r="M19" s="31" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O19" s="10" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q19" s="9">
@@ -9601,7 +9601,7 @@
         <v>+0</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -9629,27 +9629,27 @@
       </c>
       <c r="I20" s="26"/>
       <c r="J20" s="10">
-        <f t="shared" ref="J20:J22" si="6">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
+        <f t="shared" ref="J20:J22" si="7">IF($E20="Nee",0,IF(H20="Ja",IF(ISNUMBER(I20),I20,"-"),IF(ISNUMBER(G20),G20,"-")))</f>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="1"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="N20" s="10">
         <f t="shared" si="2"/>
         <v>0.99999800000000005</v>
       </c>
+      <c r="N20" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99999800000000005</v>
+      </c>
       <c r="O20" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Q20" s="9">
@@ -9665,7 +9665,7 @@
         <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9695,27 +9695,27 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="1"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="N21" s="10">
         <f t="shared" si="2"/>
         <v>0.99950000000000006</v>
       </c>
+      <c r="N21" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99950000000000006</v>
+      </c>
       <c r="O21" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="Q21" s="9">
@@ -9731,7 +9731,7 @@
         <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -9759,27 +9759,27 @@
       </c>
       <c r="I22" s="26"/>
       <c r="J22" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="1"/>
-        <v>0.99999999799999995</v>
-      </c>
-      <c r="N22" s="10">
         <f t="shared" si="2"/>
         <v>0.99999999799999995</v>
       </c>
+      <c r="N22" s="10">
+        <f t="shared" si="3"/>
+        <v>0.99999999799999995</v>
+      </c>
       <c r="O22" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.0000000000000001E-9</v>
       </c>
       <c r="Q22" s="9">
@@ -9795,7 +9795,7 @@
         <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A27DBF-2298-4509-84AE-DCEFED147711}">
   <dimension ref="B2:U29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -10199,15 +10199,15 @@
         <v>-</v>
       </c>
       <c r="K11" s="30" t="str">
-        <f>IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
+        <f t="shared" ref="K11:K22" si="1">IF($E11="Nee","NR",IF(ISNUMBER($J11),S11,IF($T11,"D","ND")))</f>
         <v>ND</v>
       </c>
       <c r="M11" s="31" t="e">
-        <f t="shared" ref="M11:M12" si="1">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
+        <f t="shared" ref="M11:M12" si="2">IF(AND(F11="Geen faalkans",H11="Nee"),1,1-J11)</f>
         <v>#VALUE!</v>
       </c>
       <c r="N11" s="10">
-        <f t="shared" ref="N11:N12" si="2">IF(J11="-",1,M11)</f>
+        <f t="shared" ref="N11:N12" si="3">IF(J11="-",1,M11)</f>
         <v>1</v>
       </c>
       <c r="O11" s="10" t="e">
@@ -10263,23 +10263,23 @@
         <v>0</v>
       </c>
       <c r="K12" s="32" t="str">
-        <f>IF($E12="Nee","NR",IF(ISNUMBER($J12),S12,IF($T12,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O13" si="3">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O13" si="4">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P13" si="4">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P13" si="5">IF(J12="-",0,O12)</f>
         <v>0</v>
       </c>
       <c r="Q12" s="9">
@@ -10295,7 +10295,7 @@
         <v>+III</v>
       </c>
       <c r="T12" s="12" t="b">
-        <f t="shared" ref="T12:T22" si="5">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
+        <f t="shared" ref="T12:T22" si="6">IF($E12="Ja",IF($H12="Ja",NOT(ISNUMBER($I12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -10327,23 +10327,23 @@
         <v>2.4E-2</v>
       </c>
       <c r="K13" s="32" t="str">
-        <f>IF($E13="Nee","NR",IF(ISNUMBER($J13),S13,IF($T13,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M13" s="31">
-        <f t="shared" ref="M13:M22" si="6">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
+        <f t="shared" ref="M13:M22" si="7">IF(AND(F13="Geen faalkans",H13="Nee"),1,1-J13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="N13" s="10">
-        <f t="shared" ref="N13:N22" si="7">IF(J13="-",1,M13)</f>
+        <f t="shared" ref="N13:N22" si="8">IF(J13="-",1,M13)</f>
         <v>0.97599999999999998</v>
       </c>
       <c r="O13" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="P13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="Q13" s="9">
@@ -10359,7 +10359,7 @@
         <v>-I</v>
       </c>
       <c r="T13" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10389,23 +10389,23 @@
         <v>0</v>
       </c>
       <c r="K14" s="32" t="str">
-        <f>IF($E14="Nee","NR",IF(ISNUMBER($J14),S14,IF($T14,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M14" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O14" s="10">
-        <f t="shared" ref="O14:O22" si="8">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
+        <f t="shared" ref="O14:O22" si="9">IF(AND(F14="Geen faalkans",H14="Nee"),0,J14*$C$3)</f>
         <v>0</v>
       </c>
       <c r="P14" s="10">
-        <f t="shared" ref="P14:P22" si="9">IF(J14="-",0,O14)</f>
+        <f t="shared" ref="P14:P22" si="10">IF(J14="-",0,O14)</f>
         <v>0</v>
       </c>
       <c r="Q14" s="9">
@@ -10421,7 +10421,7 @@
         <v>+III</v>
       </c>
       <c r="T14" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10451,23 +10451,23 @@
         <v>0</v>
       </c>
       <c r="K15" s="32" t="str">
-        <f>IF($E15="Nee","NR",IF(ISNUMBER($J15),S15,IF($T15,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>NR</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q15" s="9">
@@ -10483,7 +10483,7 @@
         <v>+III</v>
       </c>
       <c r="T15" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10517,23 +10517,23 @@
         <v>5.9999999999999995E-25</v>
       </c>
       <c r="K16" s="32" t="str">
-        <f>IF($E16="Nee","NR",IF(ISNUMBER($J16),S16,IF($T16,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.1999999999999999E-24</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.1999999999999999E-24</v>
       </c>
       <c r="Q16" s="9">
@@ -10549,7 +10549,7 @@
         <v>-I</v>
       </c>
       <c r="T16" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10583,23 +10583,23 @@
         <v>6.9999999999999999E-6</v>
       </c>
       <c r="K17" s="32" t="str">
-        <f>IF($E17="Nee","NR",IF(ISNUMBER($J17),S17,IF($T17,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99999300000000002</v>
-      </c>
-      <c r="N17" s="10">
         <f t="shared" si="7"/>
         <v>0.99999300000000002</v>
       </c>
+      <c r="N17" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99999300000000002</v>
+      </c>
       <c r="O17" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4E-5</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.4E-5</v>
       </c>
       <c r="Q17" s="9">
@@ -10615,7 +10615,7 @@
         <v>-I</v>
       </c>
       <c r="T17" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10649,23 +10649,23 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="K18" s="32" t="str">
-        <f>IF($E18="Nee","NR",IF(ISNUMBER($J18),S18,IF($T18,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99999800000000005</v>
-      </c>
-      <c r="N18" s="10">
         <f t="shared" si="7"/>
         <v>0.99999800000000005</v>
       </c>
+      <c r="N18" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99999800000000005</v>
+      </c>
       <c r="O18" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999999998E-6</v>
       </c>
       <c r="Q18" s="9">
@@ -10681,7 +10681,7 @@
         <v>-I</v>
       </c>
       <c r="T18" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10715,23 +10715,23 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="K19" s="32" t="str">
-        <f>IF($E19="Nee","NR",IF(ISNUMBER($J19),S19,IF($T19,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99950000000000006</v>
-      </c>
-      <c r="N19" s="10">
         <f t="shared" si="7"/>
         <v>0.99950000000000006</v>
       </c>
+      <c r="N19" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99950000000000006</v>
+      </c>
       <c r="O19" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1E-3</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E-3</v>
       </c>
       <c r="Q19" s="9">
@@ -10747,7 +10747,7 @@
         <v>-I</v>
       </c>
       <c r="T19" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10779,23 +10779,23 @@
         <v>2.9999999999999998E-15</v>
       </c>
       <c r="K20" s="32" t="str">
-        <f>IF($E20="Nee","NR",IF(ISNUMBER($J20),S20,IF($T20,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="6"/>
-        <v>0.999999999999997</v>
-      </c>
-      <c r="N20" s="10">
         <f t="shared" si="7"/>
         <v>0.999999999999997</v>
       </c>
+      <c r="N20" s="10">
+        <f t="shared" si="8"/>
+        <v>0.999999999999997</v>
+      </c>
       <c r="O20" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.9999999999999997E-15</v>
       </c>
       <c r="Q20" s="9">
@@ -10811,7 +10811,7 @@
         <v>-I</v>
       </c>
       <c r="T20" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10843,23 +10843,23 @@
         <v>4.0000000000000003E-5</v>
       </c>
       <c r="K21" s="32" t="str">
-        <f>IF($E21="Nee","NR",IF(ISNUMBER($J21),S21,IF($T21,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="6"/>
-        <v>0.99995999999999996</v>
-      </c>
-      <c r="N21" s="10">
         <f t="shared" si="7"/>
         <v>0.99995999999999996</v>
       </c>
+      <c r="N21" s="10">
+        <f t="shared" si="8"/>
+        <v>0.99995999999999996</v>
+      </c>
       <c r="O21" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000007E-5</v>
       </c>
       <c r="Q21" s="9">
@@ -10875,7 +10875,7 @@
         <v>-I</v>
       </c>
       <c r="T21" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10907,23 +10907,23 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="K22" s="32" t="str">
-        <f>IF($E22="Nee","NR",IF(ISNUMBER($J22),S22,IF($T22,"D","ND")))</f>
+        <f t="shared" si="1"/>
         <v>-I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="6"/>
-        <v>0.996</v>
-      </c>
-      <c r="N22" s="10">
         <f t="shared" si="7"/>
         <v>0.996</v>
       </c>
+      <c r="N22" s="10">
+        <f t="shared" si="8"/>
+        <v>0.996</v>
+      </c>
       <c r="O22" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="Q22" s="9">
@@ -10939,7 +10939,7 @@
         <v>-I</v>
       </c>
       <c r="T22" s="12" t="b">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
